--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="2058">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9531,12 +9531,48 @@
     <t>VIP等级0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>actp_own_task_p_system_update</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9620,6 +9656,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -9756,7 +9798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -9779,12 +9821,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10112,6 +10163,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10391,7 +10451,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
     </sheetView>
@@ -15136,13 +15196,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D331" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27038,6 +27098,40 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="353" spans="1:12" s="120" customFormat="1">
+      <c r="A353" s="118">
+        <v>352</v>
+      </c>
+      <c r="B353" s="118">
+        <v>1</v>
+      </c>
+      <c r="C353" s="121" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D353" s="118" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E353" s="118"/>
+      <c r="F353" s="118"/>
+      <c r="G353" s="118">
+        <v>380</v>
+      </c>
+      <c r="H353" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I353" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J353" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="K353" s="118">
+        <v>0</v>
+      </c>
+      <c r="L353" s="122">
+        <v>44201</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -27049,13 +27143,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I931"/>
+  <dimension ref="A1:I935"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C896" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G932" sqref="G932"/>
+      <selection pane="bottomRight" activeCell="D941" sqref="D941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49360,6 +49454,98 @@
       </c>
       <c r="G931" s="15" t="s">
         <v>2048</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932" s="8">
+        <v>931</v>
+      </c>
+      <c r="B932" s="103">
+        <v>380</v>
+      </c>
+      <c r="C932" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D932" s="103" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E932" s="103">
+        <v>5</v>
+      </c>
+      <c r="F932" s="103">
+        <v>1</v>
+      </c>
+      <c r="G932" s="103" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" ht="16.5">
+      <c r="A933" s="8">
+        <v>932</v>
+      </c>
+      <c r="B933" s="103">
+        <v>380</v>
+      </c>
+      <c r="C933" s="103" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D933" s="123" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E933" s="103">
+        <v>2</v>
+      </c>
+      <c r="F933" s="103">
+        <v>1</v>
+      </c>
+      <c r="G933" s="103" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" s="8">
+        <v>933</v>
+      </c>
+      <c r="B934" s="103">
+        <v>380</v>
+      </c>
+      <c r="C934" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D934" s="103" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E934" s="103">
+        <v>2</v>
+      </c>
+      <c r="F934" s="103">
+        <v>2</v>
+      </c>
+      <c r="G934" s="104" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935" s="8">
+        <v>934</v>
+      </c>
+      <c r="B935" s="103">
+        <v>380</v>
+      </c>
+      <c r="C935" s="103" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D935" s="104" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E935" s="103">
+        <v>2</v>
+      </c>
+      <c r="F935" s="103">
+        <v>2</v>
+      </c>
+      <c r="G935" s="103" t="s">
+        <v>2057</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="2060">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9532,39 +9532,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_system_update</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>systype</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>systype</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS用户</t>
+    <t>treasure_bowl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆限制（v0）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10449,11 +10457,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q458"/>
+  <dimension ref="A1:Q460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A460" sqref="A460:C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15186,6 +15194,17 @@
         <v>379</v>
       </c>
     </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C460" s="3">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15202,7 +15221,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
+      <selection pane="bottomRight" activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27106,10 +27125,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="121" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D353" s="118" t="s">
         <v>2049</v>
-      </c>
-      <c r="D353" s="118" t="s">
-        <v>2050</v>
       </c>
       <c r="E353" s="118"/>
       <c r="F353" s="118"/>
@@ -27143,13 +27162,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I935"/>
+  <dimension ref="A1:I936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C902" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D941" sqref="D941"/>
+      <selection pane="bottomRight" activeCell="E936" sqref="E936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49487,19 +49506,19 @@
         <v>380</v>
       </c>
       <c r="C933" s="103" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D933" s="123" t="s">
         <v>2051</v>
       </c>
-      <c r="D933" s="123" t="s">
+      <c r="E933" s="103">
+        <v>2</v>
+      </c>
+      <c r="F933" s="103">
+        <v>1</v>
+      </c>
+      <c r="G933" s="103" t="s">
         <v>2052</v>
-      </c>
-      <c r="E933" s="103">
-        <v>2</v>
-      </c>
-      <c r="F933" s="103">
-        <v>1</v>
-      </c>
-      <c r="G933" s="103" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -49522,7 +49541,7 @@
         <v>2</v>
       </c>
       <c r="G934" s="104" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -49533,19 +49552,42 @@
         <v>380</v>
       </c>
       <c r="C935" s="103" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D935" s="104" t="s">
         <v>2055</v>
       </c>
-      <c r="D935" s="104" t="s">
+      <c r="E935" s="103">
+        <v>2</v>
+      </c>
+      <c r="F935" s="103">
+        <v>2</v>
+      </c>
+      <c r="G935" s="103" t="s">
         <v>2056</v>
       </c>
-      <c r="E935" s="103">
-        <v>2</v>
-      </c>
-      <c r="F935" s="103">
-        <v>2</v>
-      </c>
-      <c r="G935" s="103" t="s">
-        <v>2057</v>
+    </row>
+    <row r="936" spans="1:7" s="8" customFormat="1">
+      <c r="A936" s="8">
+        <v>935</v>
+      </c>
+      <c r="B936" s="8">
+        <v>381</v>
+      </c>
+      <c r="C936" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D936" s="15">
+        <v>0</v>
+      </c>
+      <c r="E936" s="14">
+        <v>2</v>
+      </c>
+      <c r="F936" s="14">
+        <v>1</v>
+      </c>
+      <c r="G936" s="15" t="s">
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -49561,7 +49603,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="2073">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9573,6 +9573,58 @@
   </si>
   <si>
     <t>聚宝盆限制（v0）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费、小额、新人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月25日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月25日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是免费用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是小额用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9672,7 +9724,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9805,6 +9857,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9843,7 +9901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10180,6 +10238,22 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15215,13 +15289,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O353"/>
+  <dimension ref="A1:O356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C356" sqref="C356"/>
+      <selection pane="bottomRight" activeCell="G356" sqref="G356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27151,6 +27225,108 @@
         <v>44201</v>
       </c>
     </row>
+    <row r="354" spans="1:12">
+      <c r="A354" s="17">
+        <v>353</v>
+      </c>
+      <c r="B354" s="17">
+        <v>1</v>
+      </c>
+      <c r="C354" s="124" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D354" s="124" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E354" s="125"/>
+      <c r="F354" s="125"/>
+      <c r="G354" s="125">
+        <v>382</v>
+      </c>
+      <c r="H354" s="125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I354" s="126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J354" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="K354" s="125">
+        <v>1611014400</v>
+      </c>
+      <c r="L354" s="124" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355" s="17">
+        <v>354</v>
+      </c>
+      <c r="B355" s="17">
+        <v>1</v>
+      </c>
+      <c r="C355" s="124" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D355" s="124" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E355" s="125"/>
+      <c r="F355" s="125"/>
+      <c r="G355" s="125">
+        <v>383</v>
+      </c>
+      <c r="H355" s="125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I355" s="126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J355" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="K355" s="125">
+        <v>1611014400</v>
+      </c>
+      <c r="L355" s="124" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356" s="17">
+        <v>355</v>
+      </c>
+      <c r="B356" s="17">
+        <v>1</v>
+      </c>
+      <c r="C356" s="124" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D356" s="124" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E356" s="125"/>
+      <c r="F356" s="125"/>
+      <c r="G356" s="125">
+        <v>384</v>
+      </c>
+      <c r="H356" s="125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I356" s="126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J356" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="K356" s="125">
+        <v>1611014400</v>
+      </c>
+      <c r="L356" s="124" t="s">
+        <v>2062</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -27162,13 +27338,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I936"/>
+  <dimension ref="A1:I945"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C902" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C911" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E936" sqref="E936"/>
+      <selection pane="bottomRight" activeCell="B945" sqref="B945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49588,6 +49764,213 @@
       </c>
       <c r="G936" s="15" t="s">
         <v>2048</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7">
+      <c r="A937" s="8">
+        <v>936</v>
+      </c>
+      <c r="B937" s="127">
+        <v>382</v>
+      </c>
+      <c r="C937" s="128" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D937" s="128" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E937" s="127">
+        <v>2</v>
+      </c>
+      <c r="F937" s="127">
+        <v>1</v>
+      </c>
+      <c r="G937" s="128" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938" s="8">
+        <v>937</v>
+      </c>
+      <c r="B938" s="127">
+        <v>382</v>
+      </c>
+      <c r="C938" s="128" t="s">
+        <v>863</v>
+      </c>
+      <c r="D938" s="128" t="s">
+        <v>868</v>
+      </c>
+      <c r="E938" s="127">
+        <v>2</v>
+      </c>
+      <c r="F938" s="127">
+        <v>2</v>
+      </c>
+      <c r="G938" s="128" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939" s="8">
+        <v>938</v>
+      </c>
+      <c r="B939" s="127">
+        <v>382</v>
+      </c>
+      <c r="C939" s="128" t="s">
+        <v>863</v>
+      </c>
+      <c r="D939" s="128" t="s">
+        <v>872</v>
+      </c>
+      <c r="E939" s="127">
+        <v>2</v>
+      </c>
+      <c r="F939" s="127">
+        <v>3</v>
+      </c>
+      <c r="G939" s="128" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" s="8">
+        <v>939</v>
+      </c>
+      <c r="B940" s="129">
+        <v>383</v>
+      </c>
+      <c r="C940" s="45" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D940" s="129">
+        <v>1</v>
+      </c>
+      <c r="E940" s="129">
+        <v>3</v>
+      </c>
+      <c r="F940" s="129">
+        <v>1</v>
+      </c>
+      <c r="G940" s="45" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941" s="8">
+        <v>940</v>
+      </c>
+      <c r="B941" s="129">
+        <v>383</v>
+      </c>
+      <c r="C941" s="45" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D941" s="129">
+        <v>7</v>
+      </c>
+      <c r="E941" s="129">
+        <v>4</v>
+      </c>
+      <c r="F941" s="129">
+        <v>1</v>
+      </c>
+      <c r="G941" s="45" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942" s="8">
+        <v>941</v>
+      </c>
+      <c r="B942" s="129">
+        <v>383</v>
+      </c>
+      <c r="C942" s="129" t="s">
+        <v>863</v>
+      </c>
+      <c r="D942" s="129" t="s">
+        <v>864</v>
+      </c>
+      <c r="E942" s="129">
+        <v>5</v>
+      </c>
+      <c r="F942" s="129">
+        <v>1</v>
+      </c>
+      <c r="G942" s="45" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943" s="8">
+        <v>942</v>
+      </c>
+      <c r="B943" s="127">
+        <v>384</v>
+      </c>
+      <c r="C943" s="128" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D943" s="127">
+        <v>1</v>
+      </c>
+      <c r="E943" s="127">
+        <v>3</v>
+      </c>
+      <c r="F943" s="127">
+        <v>1</v>
+      </c>
+      <c r="G943" s="128" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944" s="8">
+        <v>943</v>
+      </c>
+      <c r="B944" s="127">
+        <v>384</v>
+      </c>
+      <c r="C944" s="128" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D944" s="127">
+        <v>7</v>
+      </c>
+      <c r="E944" s="127">
+        <v>4</v>
+      </c>
+      <c r="F944" s="127">
+        <v>1</v>
+      </c>
+      <c r="G944" s="128" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945" s="8">
+        <v>944</v>
+      </c>
+      <c r="B945" s="127">
+        <v>384</v>
+      </c>
+      <c r="C945" s="127" t="s">
+        <v>863</v>
+      </c>
+      <c r="D945" s="127" t="s">
+        <v>864</v>
+      </c>
+      <c r="E945" s="127">
+        <v>5</v>
+      </c>
+      <c r="F945" s="127">
+        <v>1</v>
+      </c>
+      <c r="G945" s="128" t="s">
+        <v>2072</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2080">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9625,6 +9625,34 @@
   </si>
   <si>
     <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_week_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金周卡跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_month_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金月卡跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10531,11 +10559,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q460"/>
+  <dimension ref="A1:Q463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A460" sqref="A460:C460"/>
+      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15279,6 +15307,28 @@
         <v>381</v>
       </c>
     </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="27" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B462" s="27" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C462" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="27" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B463" s="27" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C463" s="3">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15291,11 +15341,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G356" sqref="G356"/>
+      <selection pane="bottomRight" activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27338,13 +27388,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I945"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C911" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C920" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B945" sqref="B945"/>
+      <selection pane="bottomRight" activeCell="A946" sqref="A946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49971,6 +50021,52 @@
       </c>
       <c r="G945" s="128" t="s">
         <v>2072</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" s="8" customFormat="1">
+      <c r="A946" s="8">
+        <v>945</v>
+      </c>
+      <c r="B946" s="8">
+        <v>385</v>
+      </c>
+      <c r="C946" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D946" s="15">
+        <v>0</v>
+      </c>
+      <c r="E946" s="14">
+        <v>2</v>
+      </c>
+      <c r="F946" s="14">
+        <v>1</v>
+      </c>
+      <c r="G946" s="15" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" s="8" customFormat="1">
+      <c r="A947" s="8">
+        <v>946</v>
+      </c>
+      <c r="B947" s="8">
+        <v>386</v>
+      </c>
+      <c r="C947" s="15" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D947" s="15">
+        <v>1</v>
+      </c>
+      <c r="E947" s="14">
+        <v>3</v>
+      </c>
+      <c r="F947" s="14">
+        <v>1</v>
+      </c>
+      <c r="G947" s="15" t="s">
+        <v>2079</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2081">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9653,6 +9653,10 @@
   </si>
   <si>
     <t>VIP等级1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非CPS渠道权限(小游戏福利常用)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9833,12 +9837,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9891,6 +9889,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9929,7 +9933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10125,13 +10129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10147,27 +10144,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10185,6 +10168,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10192,19 +10188,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10214,17 +10197,23 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10232,23 +10221,14 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10266,21 +10246,27 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13140,7 +13126,7 @@
       <c r="D200" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="J200" s="103"/>
+      <c r="J200" s="94"/>
     </row>
     <row r="201" spans="1:10" s="18" customFormat="1">
       <c r="A201" s="34" t="s">
@@ -15198,7 +15184,7 @@
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="79" t="s">
+      <c r="A446" s="76" t="s">
         <v>2006</v>
       </c>
       <c r="B446" s="27" t="s">
@@ -15209,7 +15195,7 @@
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="79" t="s">
+      <c r="A447" s="76" t="s">
         <v>2008</v>
       </c>
       <c r="B447" s="27" t="s">
@@ -15341,11 +15327,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D337" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C351" sqref="C351"/>
+      <selection pane="bottomRight" activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16207,7 +16193,7 @@
       <c r="C23" s="32" t="s">
         <v>1267</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="82" t="s">
         <v>1272</v>
       </c>
       <c r="E23" s="31"/>
@@ -16243,7 +16229,7 @@
       <c r="C24" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="82" t="s">
         <v>1270</v>
       </c>
       <c r="E24" s="31"/>
@@ -16279,7 +16265,7 @@
       <c r="C25" s="32" t="s">
         <v>1269</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="82" t="s">
         <v>1271</v>
       </c>
       <c r="E25" s="31"/>
@@ -23027,785 +23013,785 @@
         <v>853</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="24" customFormat="1">
+    <row r="225" spans="1:12" s="22" customFormat="1">
       <c r="A225" s="17">
         <v>224</v>
       </c>
-      <c r="B225" s="28">
+      <c r="B225" s="17">
         <v>0</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="D225" s="29" t="s">
+      <c r="D225" s="16" t="s">
         <v>1126</v>
       </c>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28">
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17">
         <v>178</v>
       </c>
-      <c r="H225" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I225" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="29" t="s">
+      <c r="H225" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I225" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="16" t="s">
         <v>1127</v>
       </c>
-      <c r="K225" s="28">
+      <c r="K225" s="17">
         <v>1591054200</v>
       </c>
-      <c r="L225" s="29" t="s">
+      <c r="L225" s="16" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="80" customFormat="1">
+    <row r="226" spans="1:12" s="22" customFormat="1">
       <c r="A226" s="17">
         <v>225</v>
       </c>
-      <c r="B226" s="78">
-        <v>1</v>
-      </c>
-      <c r="C226" s="79" t="s">
+      <c r="B226" s="17">
+        <v>1</v>
+      </c>
+      <c r="C226" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="D226" s="78" t="s">
+      <c r="D226" s="17" t="s">
         <v>1169</v>
       </c>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
-      <c r="G226" s="78">
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17">
         <v>179</v>
       </c>
-      <c r="H226" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I226" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" s="78" t="s">
+      <c r="H226" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I226" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="K226" s="78">
+      <c r="K226" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L226" s="79" t="s">
+      <c r="L226" s="16" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="87" customFormat="1">
+    <row r="227" spans="1:12" s="22" customFormat="1">
       <c r="A227" s="17">
         <v>226</v>
       </c>
-      <c r="B227" s="85">
+      <c r="B227" s="17">
         <v>0</v>
       </c>
-      <c r="C227" s="86" t="s">
+      <c r="C227" s="16" t="s">
         <v>1199</v>
       </c>
-      <c r="D227" s="86" t="s">
+      <c r="D227" s="16" t="s">
         <v>1137</v>
       </c>
-      <c r="E227" s="85"/>
-      <c r="F227" s="85"/>
-      <c r="G227" s="85">
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17">
         <v>180</v>
       </c>
-      <c r="H227" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I227" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="85" t="s">
+      <c r="H227" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I227" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="K227" s="85">
+      <c r="K227" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L227" s="86" t="s">
+      <c r="L227" s="16" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="74" customFormat="1">
+    <row r="228" spans="1:12" s="22" customFormat="1">
       <c r="A228" s="17">
         <v>227</v>
       </c>
-      <c r="B228" s="72">
+      <c r="B228" s="17">
         <v>0</v>
       </c>
-      <c r="C228" s="73" t="s">
+      <c r="C228" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="D228" s="73" t="s">
+      <c r="D228" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
-      <c r="G228" s="72">
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17">
         <v>181</v>
       </c>
-      <c r="H228" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I228" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="73" t="s">
+      <c r="H228" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I228" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="K228" s="72">
+      <c r="K228" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L228" s="73" t="s">
+      <c r="L228" s="16" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="24" customFormat="1">
+    <row r="229" spans="1:12" s="22" customFormat="1">
       <c r="A229" s="17">
         <v>228</v>
       </c>
-      <c r="B229" s="28">
+      <c r="B229" s="17">
         <v>0</v>
       </c>
-      <c r="C229" s="29" t="s">
+      <c r="C229" s="16" t="s">
         <v>1196</v>
       </c>
-      <c r="D229" s="29" t="s">
+      <c r="D229" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="E229" s="28"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28">
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17">
         <v>182</v>
       </c>
-      <c r="H229" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I229" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="28" t="s">
+      <c r="H229" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I229" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="K229" s="28">
+      <c r="K229" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L229" s="28" t="s">
+      <c r="L229" s="17" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="83" customFormat="1">
+    <row r="230" spans="1:12" s="22" customFormat="1">
       <c r="A230" s="17">
         <v>229</v>
       </c>
-      <c r="B230" s="81">
+      <c r="B230" s="17">
         <v>0</v>
       </c>
-      <c r="C230" s="82" t="s">
+      <c r="C230" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="D230" s="82" t="s">
+      <c r="D230" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="E230" s="81"/>
-      <c r="F230" s="81"/>
-      <c r="G230" s="81">
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17">
         <v>183</v>
       </c>
-      <c r="H230" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I230" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="82" t="s">
+      <c r="H230" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I230" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="16" t="s">
         <v>1150</v>
       </c>
-      <c r="K230" s="81">
+      <c r="K230" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L230" s="82" t="s">
+      <c r="L230" s="16" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="80" customFormat="1">
+    <row r="231" spans="1:12" s="22" customFormat="1">
       <c r="A231" s="17">
         <v>230</v>
       </c>
-      <c r="B231" s="78">
+      <c r="B231" s="17">
         <v>0</v>
       </c>
-      <c r="C231" s="79" t="s">
+      <c r="C231" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="D231" s="79" t="s">
+      <c r="D231" s="16" t="s">
         <v>1221</v>
       </c>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="78">
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17">
         <v>184</v>
       </c>
-      <c r="H231" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I231" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="79" t="s">
+      <c r="H231" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="16" t="s">
         <v>1166</v>
       </c>
-      <c r="K231" s="78">
+      <c r="K231" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L231" s="79" t="s">
+      <c r="L231" s="16" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="24" customFormat="1">
+    <row r="232" spans="1:12" s="22" customFormat="1">
       <c r="A232" s="17">
         <v>231</v>
       </c>
-      <c r="B232" s="28">
+      <c r="B232" s="17">
         <v>0</v>
       </c>
-      <c r="C232" s="29" t="s">
+      <c r="C232" s="16" t="s">
         <v>1186</v>
       </c>
-      <c r="D232" s="29" t="s">
+      <c r="D232" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="28">
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17">
         <v>185</v>
       </c>
-      <c r="H232" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I232" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" s="29" t="s">
+      <c r="H232" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I232" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="K232" s="28">
+      <c r="K232" s="17">
         <v>1591659000</v>
       </c>
-      <c r="L232" s="29" t="s">
+      <c r="L232" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="74" customFormat="1">
+    <row r="233" spans="1:12" s="22" customFormat="1">
       <c r="A233" s="17">
         <v>232</v>
       </c>
-      <c r="B233" s="72">
-        <v>1</v>
-      </c>
-      <c r="C233" s="73" t="s">
+      <c r="B233" s="17">
+        <v>1</v>
+      </c>
+      <c r="C233" s="16" t="s">
         <v>1283</v>
       </c>
-      <c r="D233" s="72" t="s">
+      <c r="D233" s="17" t="s">
         <v>1172</v>
       </c>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="72">
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17">
         <v>186</v>
       </c>
-      <c r="H233" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="72" t="s">
+      <c r="H233" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I233" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="17" t="s">
         <v>1175</v>
       </c>
-      <c r="K233" s="72">
+      <c r="K233" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L233" s="72" t="s">
+      <c r="L233" s="17" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="24" customFormat="1">
+    <row r="234" spans="1:12" s="22" customFormat="1">
       <c r="A234" s="17">
         <v>233</v>
       </c>
-      <c r="B234" s="28">
-        <v>1</v>
-      </c>
-      <c r="C234" s="29" t="s">
+      <c r="B234" s="17">
+        <v>0</v>
+      </c>
+      <c r="C234" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="D234" s="29" t="s">
+      <c r="D234" s="16" t="s">
         <v>1182</v>
       </c>
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28">
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17">
         <v>187</v>
       </c>
-      <c r="H234" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I234" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="29" t="s">
+      <c r="H234" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I234" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="K234" s="28">
+      <c r="K234" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L234" s="29" t="s">
+      <c r="L234" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="24" customFormat="1">
+    <row r="235" spans="1:12" s="22" customFormat="1">
       <c r="A235" s="17">
         <v>234</v>
       </c>
-      <c r="B235" s="28">
-        <v>1</v>
-      </c>
-      <c r="C235" s="29" t="s">
+      <c r="B235" s="17">
+        <v>0</v>
+      </c>
+      <c r="C235" s="16" t="s">
         <v>1201</v>
       </c>
-      <c r="D235" s="29" t="s">
+      <c r="D235" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="E235" s="28"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28">
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17">
         <v>188</v>
       </c>
-      <c r="H235" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I235" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="29" t="s">
+      <c r="H235" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I235" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="16" t="s">
         <v>1127</v>
       </c>
-      <c r="K235" s="28">
+      <c r="K235" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L235" s="29" t="s">
+      <c r="L235" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="80" customFormat="1">
+    <row r="236" spans="1:12" s="22" customFormat="1">
       <c r="A236" s="17">
         <v>235</v>
       </c>
-      <c r="B236" s="78">
-        <v>1</v>
-      </c>
-      <c r="C236" s="79" t="s">
+      <c r="B236" s="17">
+        <v>0</v>
+      </c>
+      <c r="C236" s="16" t="s">
         <v>1245</v>
       </c>
-      <c r="D236" s="79" t="s">
+      <c r="D236" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="E236" s="78"/>
-      <c r="F236" s="78"/>
-      <c r="G236" s="78">
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17">
         <v>189</v>
       </c>
-      <c r="H236" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I236" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="79" t="s">
+      <c r="H236" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I236" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="K236" s="78">
+      <c r="K236" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L236" s="79" t="s">
+      <c r="L236" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="80" customFormat="1">
+    <row r="237" spans="1:12" s="22" customFormat="1">
       <c r="A237" s="17">
         <v>236</v>
       </c>
-      <c r="B237" s="78">
-        <v>1</v>
-      </c>
-      <c r="C237" s="79" t="s">
+      <c r="B237" s="17">
+        <v>0</v>
+      </c>
+      <c r="C237" s="16" t="s">
         <v>1503</v>
       </c>
-      <c r="D237" s="79" t="s">
+      <c r="D237" s="16" t="s">
         <v>1188</v>
       </c>
-      <c r="E237" s="78"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="78">
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17">
         <v>190</v>
       </c>
-      <c r="H237" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I237" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="79" t="s">
+      <c r="H237" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I237" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="K237" s="78">
+      <c r="K237" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L237" s="79" t="s">
+      <c r="L237" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="80" customFormat="1">
+    <row r="238" spans="1:12" s="22" customFormat="1">
       <c r="A238" s="17">
         <v>237</v>
       </c>
-      <c r="B238" s="78">
-        <v>1</v>
-      </c>
-      <c r="C238" s="79" t="s">
+      <c r="B238" s="17">
+        <v>0</v>
+      </c>
+      <c r="C238" s="16" t="s">
         <v>1198</v>
       </c>
-      <c r="D238" s="79" t="s">
+      <c r="D238" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="E238" s="78"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="78">
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17">
         <v>191</v>
       </c>
-      <c r="H238" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I238" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="79" t="s">
+      <c r="H238" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I238" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="K238" s="78">
+      <c r="K238" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L238" s="79" t="s">
+      <c r="L238" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="83" customFormat="1">
+    <row r="239" spans="1:12" s="22" customFormat="1">
       <c r="A239" s="17">
         <v>238</v>
       </c>
-      <c r="B239" s="81">
-        <v>1</v>
-      </c>
-      <c r="C239" s="82" t="s">
+      <c r="B239" s="17">
+        <v>0</v>
+      </c>
+      <c r="C239" s="16" t="s">
         <v>1202</v>
       </c>
-      <c r="D239" s="82" t="s">
+      <c r="D239" s="16" t="s">
         <v>1203</v>
       </c>
-      <c r="E239" s="81"/>
-      <c r="F239" s="81"/>
-      <c r="G239" s="81">
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17">
         <v>192</v>
       </c>
-      <c r="H239" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I239" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="82" t="s">
+      <c r="H239" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I239" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="K239" s="81">
+      <c r="K239" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L239" s="82" t="s">
+      <c r="L239" s="16" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="87" customFormat="1">
+    <row r="240" spans="1:12" s="22" customFormat="1">
       <c r="A240" s="17">
         <v>239</v>
       </c>
-      <c r="B240" s="85">
-        <v>1</v>
-      </c>
-      <c r="C240" s="86" t="s">
+      <c r="B240" s="17">
+        <v>1</v>
+      </c>
+      <c r="C240" s="16" t="s">
         <v>1391</v>
       </c>
-      <c r="D240" s="86" t="s">
+      <c r="D240" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="E240" s="85"/>
-      <c r="F240" s="85"/>
-      <c r="G240" s="85">
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17">
         <v>193</v>
       </c>
-      <c r="H240" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I240" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="86" t="s">
+      <c r="H240" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I240" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="K240" s="85">
+      <c r="K240" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L240" s="86" t="s">
+      <c r="L240" s="16" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="87" customFormat="1">
+    <row r="241" spans="1:12" s="22" customFormat="1">
       <c r="A241" s="17">
         <v>240</v>
       </c>
-      <c r="B241" s="85">
-        <v>1</v>
-      </c>
-      <c r="C241" s="86" t="s">
+      <c r="B241" s="17">
+        <v>1</v>
+      </c>
+      <c r="C241" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="D241" s="86" t="s">
+      <c r="D241" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="E241" s="85"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="85">
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17">
         <v>194</v>
       </c>
-      <c r="H241" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I241" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" s="86" t="s">
+      <c r="H241" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="K241" s="85">
+      <c r="K241" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L241" s="86" t="s">
+      <c r="L241" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="80" customFormat="1">
+    <row r="242" spans="1:12" s="22" customFormat="1">
       <c r="A242" s="17">
         <v>241</v>
       </c>
-      <c r="B242" s="78">
-        <v>1</v>
-      </c>
-      <c r="C242" s="79" t="s">
+      <c r="B242" s="17">
+        <v>1</v>
+      </c>
+      <c r="C242" s="16" t="s">
         <v>1214</v>
       </c>
-      <c r="D242" s="79" t="s">
+      <c r="D242" s="16" t="s">
         <v>1229</v>
       </c>
-      <c r="E242" s="78"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="78">
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17">
         <v>195</v>
       </c>
-      <c r="H242" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I242" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" s="79" t="s">
+      <c r="H242" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I242" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="K242" s="78">
+      <c r="K242" s="17">
         <v>1592236800</v>
       </c>
-      <c r="L242" s="79" t="s">
+      <c r="L242" s="16" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="80" customFormat="1">
+    <row r="243" spans="1:12" s="22" customFormat="1">
       <c r="A243" s="17">
         <v>242</v>
       </c>
-      <c r="B243" s="78">
-        <v>1</v>
-      </c>
-      <c r="C243" s="79" t="s">
+      <c r="B243" s="17">
+        <v>1</v>
+      </c>
+      <c r="C243" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="D243" s="79" t="s">
+      <c r="D243" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="E243" s="78"/>
-      <c r="F243" s="78"/>
-      <c r="G243" s="78">
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17">
         <v>196</v>
       </c>
-      <c r="H243" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I243" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" s="79" t="s">
+      <c r="H243" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="K243" s="78">
+      <c r="K243" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L243" s="79" t="s">
+      <c r="L243" s="16" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="24" customFormat="1">
+    <row r="244" spans="1:12" s="22" customFormat="1">
       <c r="A244" s="17">
         <v>243</v>
       </c>
-      <c r="B244" s="28">
-        <v>1</v>
-      </c>
-      <c r="C244" s="29" t="s">
+      <c r="B244" s="17">
+        <v>0</v>
+      </c>
+      <c r="C244" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="D244" s="28" t="s">
+      <c r="D244" s="17" t="s">
         <v>1231</v>
       </c>
-      <c r="E244" s="28"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28">
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17">
         <v>198</v>
       </c>
-      <c r="H244" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I244" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" s="28" t="s">
+      <c r="H244" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="K244" s="28">
+      <c r="K244" s="17">
         <v>1592841600</v>
       </c>
-      <c r="L244" s="28" t="s">
+      <c r="L244" s="17" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="80" customFormat="1">
+    <row r="245" spans="1:12" s="22" customFormat="1">
       <c r="A245" s="17">
         <v>244</v>
       </c>
-      <c r="B245" s="78">
-        <v>1</v>
-      </c>
-      <c r="C245" s="79" t="s">
+      <c r="B245" s="17">
+        <v>0</v>
+      </c>
+      <c r="C245" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="D245" s="79" t="s">
+      <c r="D245" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="E245" s="78"/>
-      <c r="F245" s="78"/>
-      <c r="G245" s="78">
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17">
         <v>199</v>
       </c>
-      <c r="H245" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I245" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" s="79" t="s">
+      <c r="H245" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" s="16" t="s">
         <v>1239</v>
       </c>
-      <c r="K245" s="78">
+      <c r="K245" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L245" s="79" t="s">
+      <c r="L245" s="16" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="80" customFormat="1">
+    <row r="246" spans="1:12" s="22" customFormat="1">
       <c r="A246" s="17">
         <v>245</v>
       </c>
-      <c r="B246" s="78">
-        <v>1</v>
-      </c>
-      <c r="C246" s="79" t="s">
+      <c r="B246" s="17">
+        <v>0</v>
+      </c>
+      <c r="C246" s="16" t="s">
         <v>1236</v>
       </c>
-      <c r="D246" s="79" t="s">
+      <c r="D246" s="16" t="s">
         <v>1238</v>
       </c>
-      <c r="E246" s="78"/>
-      <c r="F246" s="78"/>
-      <c r="G246" s="78">
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17">
         <v>200</v>
       </c>
-      <c r="H246" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I246" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" s="79" t="s">
+      <c r="H246" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I246" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" s="16" t="s">
         <v>1241</v>
       </c>
-      <c r="K246" s="78">
+      <c r="K246" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L246" s="79" t="s">
+      <c r="L246" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="80" customFormat="1">
+    <row r="247" spans="1:12" s="22" customFormat="1">
       <c r="A247" s="17">
         <v>246</v>
       </c>
-      <c r="B247" s="78">
-        <v>1</v>
-      </c>
-      <c r="C247" s="79" t="s">
+      <c r="B247" s="17">
+        <v>0</v>
+      </c>
+      <c r="C247" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="D247" s="79" t="s">
+      <c r="D247" s="16" t="s">
         <v>1244</v>
       </c>
-      <c r="E247" s="78"/>
-      <c r="F247" s="78"/>
-      <c r="G247" s="78">
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17">
         <v>201</v>
       </c>
-      <c r="H247" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I247" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" s="79" t="s">
+      <c r="H247" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I247" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" s="16" t="s">
         <v>1247</v>
       </c>
-      <c r="K247" s="78">
+      <c r="K247" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L247" s="79" t="s">
+      <c r="L247" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -23814,7 +23800,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" s="28" t="s">
         <v>1252</v>
@@ -23848,7 +23834,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" s="29" t="s">
         <v>1262</v>
@@ -23887,7 +23873,7 @@
       <c r="C250" s="30" t="s">
         <v>1394</v>
       </c>
-      <c r="D250" s="92" t="s">
+      <c r="D250" s="83" t="s">
         <v>1404</v>
       </c>
       <c r="G250" s="26">
@@ -23919,7 +23905,7 @@
       <c r="C251" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="D251" s="92" t="s">
+      <c r="D251" s="83" t="s">
         <v>1405</v>
       </c>
       <c r="G251" s="26">
@@ -23951,7 +23937,7 @@
       <c r="C252" s="30" t="s">
         <v>1396</v>
       </c>
-      <c r="D252" s="92" t="s">
+      <c r="D252" s="83" t="s">
         <v>1406</v>
       </c>
       <c r="G252" s="26">
@@ -23983,7 +23969,7 @@
       <c r="C253" s="30" t="s">
         <v>1397</v>
       </c>
-      <c r="D253" s="92" t="s">
+      <c r="D253" s="83" t="s">
         <v>1407</v>
       </c>
       <c r="G253" s="26">
@@ -24015,7 +24001,7 @@
       <c r="C254" s="30" t="s">
         <v>1398</v>
       </c>
-      <c r="D254" s="92" t="s">
+      <c r="D254" s="83" t="s">
         <v>1408</v>
       </c>
       <c r="G254" s="26">
@@ -24047,7 +24033,7 @@
       <c r="C255" s="30" t="s">
         <v>1399</v>
       </c>
-      <c r="D255" s="92" t="s">
+      <c r="D255" s="83" t="s">
         <v>1409</v>
       </c>
       <c r="G255" s="26">
@@ -24079,7 +24065,7 @@
       <c r="C256" s="30" t="s">
         <v>1400</v>
       </c>
-      <c r="D256" s="92" t="s">
+      <c r="D256" s="83" t="s">
         <v>1410</v>
       </c>
       <c r="G256" s="26">
@@ -24111,7 +24097,7 @@
       <c r="C257" s="30" t="s">
         <v>1401</v>
       </c>
-      <c r="D257" s="92" t="s">
+      <c r="D257" s="83" t="s">
         <v>1411</v>
       </c>
       <c r="G257" s="26">
@@ -24143,7 +24129,7 @@
       <c r="C258" s="30" t="s">
         <v>1402</v>
       </c>
-      <c r="D258" s="92" t="s">
+      <c r="D258" s="83" t="s">
         <v>1412</v>
       </c>
       <c r="G258" s="26">
@@ -24175,7 +24161,7 @@
       <c r="C259" s="30" t="s">
         <v>1403</v>
       </c>
-      <c r="D259" s="92" t="s">
+      <c r="D259" s="83" t="s">
         <v>1413</v>
       </c>
       <c r="G259" s="26">
@@ -24202,7 +24188,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" s="16" t="s">
         <v>1480</v>
@@ -24234,7 +24220,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" s="16" t="s">
         <v>1479</v>
@@ -24266,7 +24252,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" s="30" t="s">
         <v>1481</v>
@@ -24298,7 +24284,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" s="53" t="s">
         <v>1483</v>
@@ -24330,7 +24316,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" s="30" t="s">
         <v>1497</v>
@@ -24362,7 +24348,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>1498</v>
@@ -24394,7 +24380,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" s="30" t="s">
         <v>1513</v>
@@ -24426,7 +24412,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" s="30" t="s">
         <v>1504</v>
@@ -24458,7 +24444,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" s="30" t="s">
         <v>1505</v>
@@ -24490,7 +24476,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" s="30" t="s">
         <v>1506</v>
@@ -24521,8 +24507,8 @@
       <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="17">
-        <v>1</v>
+      <c r="B270" s="26">
+        <v>0</v>
       </c>
       <c r="C270" s="16" t="s">
         <v>1534</v>
@@ -24555,8 +24541,8 @@
       <c r="A271" s="17">
         <v>270</v>
       </c>
-      <c r="B271" s="17">
-        <v>1</v>
+      <c r="B271" s="26">
+        <v>0</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>1526</v>
@@ -24589,8 +24575,8 @@
       <c r="A272" s="17">
         <v>271</v>
       </c>
-      <c r="B272" s="17">
-        <v>1</v>
+      <c r="B272" s="26">
+        <v>0</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>1533</v>
@@ -24623,8 +24609,8 @@
       <c r="A273" s="17">
         <v>272</v>
       </c>
-      <c r="B273" s="17">
-        <v>1</v>
+      <c r="B273" s="26">
+        <v>0</v>
       </c>
       <c r="C273" s="17" t="s">
         <v>1531</v>
@@ -24657,8 +24643,8 @@
       <c r="A274" s="17">
         <v>273</v>
       </c>
-      <c r="B274" s="17">
-        <v>1</v>
+      <c r="B274" s="26">
+        <v>0</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>1543</v>
@@ -24691,8 +24677,8 @@
       <c r="A275" s="17">
         <v>274</v>
       </c>
-      <c r="B275" s="17">
-        <v>1</v>
+      <c r="B275" s="26">
+        <v>0</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>1581</v>
@@ -24725,8 +24711,8 @@
       <c r="A276" s="17">
         <v>275</v>
       </c>
-      <c r="B276" s="17">
-        <v>1</v>
+      <c r="B276" s="26">
+        <v>0</v>
       </c>
       <c r="C276" s="16" t="s">
         <v>1536</v>
@@ -24759,8 +24745,8 @@
       <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="17">
-        <v>1</v>
+      <c r="B277" s="26">
+        <v>0</v>
       </c>
       <c r="C277" s="16" t="s">
         <v>1577</v>
@@ -24793,8 +24779,8 @@
       <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="17">
-        <v>1</v>
+      <c r="B278" s="26">
+        <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>1653</v>
@@ -24823,173 +24809,173 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="97" customFormat="1">
-      <c r="A279" s="95">
+    <row r="279" spans="1:12" s="88" customFormat="1">
+      <c r="A279" s="86">
         <v>278</v>
       </c>
-      <c r="B279" s="95">
+      <c r="B279" s="86">
         <v>0</v>
       </c>
-      <c r="C279" s="96" t="s">
+      <c r="C279" s="87" t="s">
         <v>1597</v>
       </c>
-      <c r="D279" s="96" t="s">
+      <c r="D279" s="87" t="s">
         <v>1663</v>
       </c>
-      <c r="E279" s="95"/>
-      <c r="F279" s="95"/>
-      <c r="G279" s="95">
+      <c r="E279" s="86"/>
+      <c r="F279" s="86"/>
+      <c r="G279" s="86">
         <v>282</v>
       </c>
-      <c r="H279" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I279" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" s="96" t="s">
+      <c r="H279" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I279" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K279" s="95">
+      <c r="K279" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L279" s="96" t="s">
+      <c r="L279" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="280" spans="1:12" s="97" customFormat="1">
-      <c r="A280" s="95">
+    <row r="280" spans="1:12" s="88" customFormat="1">
+      <c r="A280" s="86">
         <v>279</v>
       </c>
-      <c r="B280" s="95">
+      <c r="B280" s="86">
         <v>0</v>
       </c>
-      <c r="C280" s="96" t="s">
+      <c r="C280" s="87" t="s">
         <v>1598</v>
       </c>
-      <c r="D280" s="96" t="s">
+      <c r="D280" s="87" t="s">
         <v>1584</v>
       </c>
-      <c r="E280" s="95"/>
-      <c r="F280" s="95"/>
-      <c r="G280" s="95">
+      <c r="E280" s="86"/>
+      <c r="F280" s="86"/>
+      <c r="G280" s="86">
         <v>283</v>
       </c>
-      <c r="H280" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I280" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" s="96" t="s">
+      <c r="H280" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I280" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K280" s="95">
+      <c r="K280" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L280" s="96" t="s">
+      <c r="L280" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="281" spans="1:12" s="97" customFormat="1">
-      <c r="A281" s="95">
+    <row r="281" spans="1:12" s="88" customFormat="1">
+      <c r="A281" s="86">
         <v>280</v>
       </c>
-      <c r="B281" s="95">
+      <c r="B281" s="86">
         <v>0</v>
       </c>
-      <c r="C281" s="96" t="s">
+      <c r="C281" s="87" t="s">
         <v>1599</v>
       </c>
-      <c r="D281" s="96" t="s">
+      <c r="D281" s="87" t="s">
         <v>1585</v>
       </c>
-      <c r="E281" s="95"/>
-      <c r="F281" s="95"/>
-      <c r="G281" s="95">
+      <c r="E281" s="86"/>
+      <c r="F281" s="86"/>
+      <c r="G281" s="86">
         <v>284</v>
       </c>
-      <c r="H281" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I281" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" s="96" t="s">
+      <c r="H281" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I281" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K281" s="95">
+      <c r="K281" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L281" s="96" t="s">
+      <c r="L281" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="282" spans="1:12" s="97" customFormat="1">
-      <c r="A282" s="95">
+    <row r="282" spans="1:12" s="88" customFormat="1">
+      <c r="A282" s="86">
         <v>281</v>
       </c>
-      <c r="B282" s="95">
+      <c r="B282" s="86">
         <v>0</v>
       </c>
-      <c r="C282" s="96" t="s">
+      <c r="C282" s="87" t="s">
         <v>1600</v>
       </c>
-      <c r="D282" s="96" t="s">
+      <c r="D282" s="87" t="s">
         <v>1586</v>
       </c>
-      <c r="E282" s="95"/>
-      <c r="F282" s="95"/>
-      <c r="G282" s="95">
+      <c r="E282" s="86"/>
+      <c r="F282" s="86"/>
+      <c r="G282" s="86">
         <v>285</v>
       </c>
-      <c r="H282" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I282" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" s="96" t="s">
+      <c r="H282" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I282" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K282" s="95">
+      <c r="K282" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L282" s="96" t="s">
+      <c r="L282" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="283" spans="1:12" s="97" customFormat="1">
-      <c r="A283" s="95">
+    <row r="283" spans="1:12" s="88" customFormat="1">
+      <c r="A283" s="86">
         <v>282</v>
       </c>
-      <c r="B283" s="95">
+      <c r="B283" s="86">
         <v>0</v>
       </c>
-      <c r="C283" s="96" t="s">
+      <c r="C283" s="87" t="s">
         <v>1601</v>
       </c>
-      <c r="D283" s="96" t="s">
+      <c r="D283" s="87" t="s">
         <v>1587</v>
       </c>
-      <c r="E283" s="95"/>
-      <c r="F283" s="95"/>
-      <c r="G283" s="95">
+      <c r="E283" s="86"/>
+      <c r="F283" s="86"/>
+      <c r="G283" s="86">
         <v>286</v>
       </c>
-      <c r="H283" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I283" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" s="96" t="s">
+      <c r="H283" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I283" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K283" s="95">
+      <c r="K283" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L283" s="96" t="s">
+      <c r="L283" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -24998,7 +24984,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
         <v>1742</v>
@@ -25032,7 +25018,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
         <v>1652</v>
@@ -25066,7 +25052,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" s="17" t="s">
         <v>1640</v>
@@ -25100,7 +25086,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>1623</v>
@@ -25134,7 +25120,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" s="16" t="s">
         <v>1631</v>
@@ -25163,139 +25149,139 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="80" customFormat="1">
-      <c r="A289" s="78">
+    <row r="289" spans="1:12" s="77" customFormat="1">
+      <c r="A289" s="75">
         <v>288</v>
       </c>
-      <c r="B289" s="78">
-        <v>1</v>
-      </c>
-      <c r="C289" s="78" t="s">
+      <c r="B289" s="75">
+        <v>0</v>
+      </c>
+      <c r="C289" s="121" t="s">
         <v>1641</v>
       </c>
-      <c r="D289" s="78" t="s">
+      <c r="D289" s="121" t="s">
         <v>1642</v>
       </c>
-      <c r="E289" s="78"/>
-      <c r="F289" s="78"/>
-      <c r="G289" s="78">
+      <c r="E289" s="75"/>
+      <c r="F289" s="75"/>
+      <c r="G289" s="75">
         <v>294</v>
       </c>
-      <c r="H289" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I289" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J289" s="78" t="s">
+      <c r="H289" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I289" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="K289" s="78">
+      <c r="K289" s="75">
         <v>1605542400</v>
       </c>
-      <c r="L289" s="78" t="s">
+      <c r="L289" s="75" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="80" customFormat="1">
-      <c r="A290" s="78">
+    <row r="290" spans="1:12" s="77" customFormat="1">
+      <c r="A290" s="75">
         <v>289</v>
       </c>
-      <c r="B290" s="78">
-        <v>1</v>
-      </c>
-      <c r="C290" s="78" t="s">
+      <c r="B290" s="75">
+        <v>0</v>
+      </c>
+      <c r="C290" s="121" t="s">
         <v>1645</v>
       </c>
-      <c r="D290" s="78" t="s">
+      <c r="D290" s="121" t="s">
         <v>1643</v>
       </c>
-      <c r="E290" s="78"/>
-      <c r="F290" s="78"/>
-      <c r="G290" s="78">
+      <c r="E290" s="75"/>
+      <c r="F290" s="75"/>
+      <c r="G290" s="75">
         <v>295</v>
       </c>
-      <c r="H290" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I290" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J290" s="78" t="s">
+      <c r="H290" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I290" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="K290" s="78">
+      <c r="K290" s="75">
         <v>1605542400</v>
       </c>
-      <c r="L290" s="78" t="s">
+      <c r="L290" s="75" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="80" customFormat="1">
-      <c r="A291" s="78">
+    <row r="291" spans="1:12" s="77" customFormat="1">
+      <c r="A291" s="75">
         <v>290</v>
       </c>
-      <c r="B291" s="78">
-        <v>1</v>
-      </c>
-      <c r="C291" s="79" t="s">
+      <c r="B291" s="75">
+        <v>0</v>
+      </c>
+      <c r="C291" s="120" t="s">
         <v>1646</v>
       </c>
-      <c r="D291" s="78" t="s">
+      <c r="D291" s="121" t="s">
         <v>1644</v>
       </c>
-      <c r="E291" s="78"/>
-      <c r="F291" s="78"/>
-      <c r="G291" s="78">
+      <c r="E291" s="75"/>
+      <c r="F291" s="75"/>
+      <c r="G291" s="75">
         <v>296</v>
       </c>
-      <c r="H291" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I291" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" s="78" t="s">
+      <c r="H291" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I291" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="K291" s="78">
+      <c r="K291" s="75">
         <v>1605542400</v>
       </c>
-      <c r="L291" s="78" t="s">
+      <c r="L291" s="75" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="80" customFormat="1">
-      <c r="A292" s="78">
+    <row r="292" spans="1:12" s="77" customFormat="1">
+      <c r="A292" s="75">
         <v>291</v>
       </c>
-      <c r="B292" s="78">
-        <v>1</v>
-      </c>
-      <c r="C292" s="79" t="s">
+      <c r="B292" s="75">
+        <v>0</v>
+      </c>
+      <c r="C292" s="120" t="s">
         <v>1843</v>
       </c>
-      <c r="D292" s="79" t="s">
+      <c r="D292" s="120" t="s">
         <v>1965</v>
       </c>
-      <c r="E292" s="78"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="78">
+      <c r="E292" s="75"/>
+      <c r="F292" s="75"/>
+      <c r="G292" s="75">
         <v>297</v>
       </c>
-      <c r="H292" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I292" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" s="78" t="s">
+      <c r="H292" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I292" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="K292" s="108">
+      <c r="K292" s="99">
         <v>1605542400</v>
       </c>
-      <c r="L292" s="109" t="s">
+      <c r="L292" s="100" t="s">
         <v>1845</v>
       </c>
     </row>
@@ -26040,7 +26026,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
         <v>1713</v>
@@ -26074,7 +26060,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
         <v>1718</v>
@@ -26106,7 +26092,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
         <v>1741</v>
@@ -26138,7 +26124,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
         <v>1719</v>
@@ -26202,7 +26188,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" s="30" t="s">
         <v>1727</v>
@@ -26234,7 +26220,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
         <v>1779</v>
@@ -26266,7 +26252,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
         <v>1755</v>
@@ -26362,12 +26348,12 @@
         <v>325</v>
       </c>
       <c r="B326" s="26">
-        <v>1</v>
-      </c>
-      <c r="C326" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" s="120" t="s">
         <v>1786</v>
       </c>
-      <c r="D326" s="30" t="s">
+      <c r="D326" s="120" t="s">
         <v>1785</v>
       </c>
       <c r="G326" s="26">
@@ -26394,12 +26380,12 @@
         <v>326</v>
       </c>
       <c r="B327" s="26">
-        <v>1</v>
-      </c>
-      <c r="C327" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" s="120" t="s">
         <v>1787</v>
       </c>
-      <c r="D327" s="30" t="s">
+      <c r="D327" s="120" t="s">
         <v>1780</v>
       </c>
       <c r="G327" s="26">
@@ -26549,37 +26535,37 @@
         <v>467</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="102" customFormat="1">
-      <c r="A332" s="100">
+    <row r="332" spans="1:12" s="93" customFormat="1">
+      <c r="A332" s="91">
         <v>331</v>
       </c>
-      <c r="B332" s="100">
-        <v>1</v>
-      </c>
-      <c r="C332" s="101" t="s">
+      <c r="B332" s="91">
+        <v>0</v>
+      </c>
+      <c r="C332" s="92" t="s">
         <v>1996</v>
       </c>
-      <c r="D332" s="101" t="s">
+      <c r="D332" s="92" t="s">
         <v>1823</v>
       </c>
-      <c r="E332" s="100"/>
-      <c r="F332" s="100"/>
-      <c r="G332" s="100">
+      <c r="E332" s="91"/>
+      <c r="F332" s="91"/>
+      <c r="G332" s="91">
         <v>336</v>
       </c>
-      <c r="H332" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I332" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="100" t="s">
+      <c r="H332" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I332" s="93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="K332" s="100">
+      <c r="K332" s="91">
         <v>1604332800</v>
       </c>
-      <c r="L332" s="101" t="s">
+      <c r="L332" s="92" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -26654,7 +26640,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" s="16" t="s">
         <v>1891</v>
@@ -26679,7 +26665,7 @@
       <c r="K335" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L335" s="119" t="s">
+      <c r="L335" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -26688,7 +26674,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" s="16" t="s">
         <v>1893</v>
@@ -26713,7 +26699,7 @@
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L336" s="119" t="s">
+      <c r="L336" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -26790,7 +26776,7 @@
       <c r="B339" s="26">
         <v>1</v>
       </c>
-      <c r="C339" s="79" t="s">
+      <c r="C339" s="76" t="s">
         <v>1977</v>
       </c>
       <c r="D339" s="30" t="s">
@@ -26822,7 +26808,7 @@
       <c r="B340" s="26">
         <v>1</v>
       </c>
-      <c r="C340" s="79" t="s">
+      <c r="C340" s="76" t="s">
         <v>1978</v>
       </c>
       <c r="D340" s="30" t="s">
@@ -26854,7 +26840,7 @@
       <c r="B341" s="26">
         <v>1</v>
       </c>
-      <c r="C341" s="79" t="s">
+      <c r="C341" s="76" t="s">
         <v>1979</v>
       </c>
       <c r="D341" s="30" t="s">
@@ -26886,7 +26872,7 @@
       <c r="B342" s="26">
         <v>1</v>
       </c>
-      <c r="C342" s="79" t="s">
+      <c r="C342" s="76" t="s">
         <v>1980</v>
       </c>
       <c r="D342" s="30" t="s">
@@ -26918,7 +26904,7 @@
       <c r="B343" s="26">
         <v>1</v>
       </c>
-      <c r="C343" s="79" t="s">
+      <c r="C343" s="76" t="s">
         <v>1981</v>
       </c>
       <c r="D343" s="30" t="s">
@@ -26950,7 +26936,7 @@
       <c r="B344" s="26">
         <v>1</v>
       </c>
-      <c r="C344" s="79" t="s">
+      <c r="C344" s="76" t="s">
         <v>1982</v>
       </c>
       <c r="D344" s="30" t="s">
@@ -26982,7 +26968,7 @@
       <c r="B345" s="26">
         <v>1</v>
       </c>
-      <c r="C345" s="79" t="s">
+      <c r="C345" s="76" t="s">
         <v>1985</v>
       </c>
       <c r="D345" s="30" t="s">
@@ -27017,7 +27003,7 @@
       <c r="C346" s="30" t="s">
         <v>1988</v>
       </c>
-      <c r="D346" s="92" t="s">
+      <c r="D346" s="83" t="s">
         <v>1990</v>
       </c>
       <c r="G346" s="26">
@@ -27049,7 +27035,7 @@
       <c r="C347" s="30" t="s">
         <v>1989</v>
       </c>
-      <c r="D347" s="92" t="s">
+      <c r="D347" s="83" t="s">
         <v>1991</v>
       </c>
       <c r="G347" s="26">
@@ -27078,11 +27064,11 @@
       <c r="B348" s="17">
         <v>1</v>
       </c>
-      <c r="C348" s="16" t="s">
+      <c r="C348" s="120" t="s">
         <v>1997</v>
       </c>
-      <c r="D348" s="16" t="s">
-        <v>1823</v>
+      <c r="D348" s="120" t="s">
+        <v>2080</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27101,177 +27087,177 @@
       <c r="K348" s="17">
         <v>1604332800</v>
       </c>
-      <c r="L348" s="16" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" s="120" customFormat="1">
-      <c r="A349" s="118">
+      <c r="L348" s="30" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" s="110" customFormat="1">
+      <c r="A349" s="108">
         <v>348</v>
       </c>
-      <c r="B349" s="118">
-        <v>1</v>
-      </c>
-      <c r="C349" s="118" t="s">
+      <c r="B349" s="108">
+        <v>1</v>
+      </c>
+      <c r="C349" s="108" t="s">
         <v>2015</v>
       </c>
-      <c r="D349" s="118" t="s">
+      <c r="D349" s="108" t="s">
         <v>2017</v>
       </c>
-      <c r="E349" s="118"/>
-      <c r="F349" s="118"/>
-      <c r="G349" s="118">
+      <c r="E349" s="108"/>
+      <c r="F349" s="108"/>
+      <c r="G349" s="108">
         <v>370</v>
       </c>
-      <c r="H349" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I349" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" s="119" t="s">
+      <c r="H349" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I349" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K349" s="118">
+      <c r="K349" s="108">
         <v>1610409600</v>
       </c>
-      <c r="L349" s="119" t="s">
+      <c r="L349" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="350" spans="1:12" s="120" customFormat="1">
-      <c r="A350" s="118">
+    <row r="350" spans="1:12" s="110" customFormat="1">
+      <c r="A350" s="108">
         <v>349</v>
       </c>
-      <c r="B350" s="118">
-        <v>1</v>
-      </c>
-      <c r="C350" s="118" t="s">
+      <c r="B350" s="108">
+        <v>1</v>
+      </c>
+      <c r="C350" s="108" t="s">
         <v>2016</v>
       </c>
-      <c r="D350" s="118" t="s">
+      <c r="D350" s="108" t="s">
         <v>2018</v>
       </c>
-      <c r="E350" s="118"/>
-      <c r="F350" s="118"/>
-      <c r="G350" s="118">
+      <c r="E350" s="108"/>
+      <c r="F350" s="108"/>
+      <c r="G350" s="108">
         <v>371</v>
       </c>
-      <c r="H350" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I350" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" s="119" t="s">
+      <c r="H350" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K350" s="118">
+      <c r="K350" s="108">
         <v>1610409600</v>
       </c>
-      <c r="L350" s="119" t="s">
+      <c r="L350" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="351" spans="1:12" s="120" customFormat="1">
-      <c r="A351" s="118">
+    <row r="351" spans="1:12" s="110" customFormat="1">
+      <c r="A351" s="108">
         <v>350</v>
       </c>
-      <c r="B351" s="118">
-        <v>1</v>
-      </c>
-      <c r="C351" s="119" t="s">
+      <c r="B351" s="108">
+        <v>1</v>
+      </c>
+      <c r="C351" s="109" t="s">
         <v>2023</v>
       </c>
-      <c r="D351" s="119" t="s">
+      <c r="D351" s="109" t="s">
         <v>2025</v>
       </c>
-      <c r="E351" s="118"/>
-      <c r="F351" s="118"/>
-      <c r="G351" s="118">
+      <c r="E351" s="108"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="108">
         <v>372</v>
       </c>
-      <c r="H351" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I351" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" s="119" t="s">
+      <c r="H351" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I351" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K351" s="118">
+      <c r="K351" s="108">
         <v>1610380800</v>
       </c>
-      <c r="L351" s="119" t="s">
+      <c r="L351" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="352" spans="1:12" s="120" customFormat="1">
-      <c r="A352" s="118">
+    <row r="352" spans="1:12" s="110" customFormat="1">
+      <c r="A352" s="108">
         <v>351</v>
       </c>
-      <c r="B352" s="118">
-        <v>1</v>
-      </c>
-      <c r="C352" s="119" t="s">
+      <c r="B352" s="108">
+        <v>1</v>
+      </c>
+      <c r="C352" s="109" t="s">
         <v>2024</v>
       </c>
-      <c r="D352" s="119" t="s">
+      <c r="D352" s="109" t="s">
         <v>2026</v>
       </c>
-      <c r="E352" s="118"/>
-      <c r="F352" s="118"/>
-      <c r="G352" s="118">
+      <c r="E352" s="108"/>
+      <c r="F352" s="108"/>
+      <c r="G352" s="108">
         <v>373</v>
       </c>
-      <c r="H352" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I352" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J352" s="119" t="s">
+      <c r="H352" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I352" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J352" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K352" s="118">
+      <c r="K352" s="108">
         <v>1610380800</v>
       </c>
-      <c r="L352" s="119" t="s">
+      <c r="L352" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="353" spans="1:12" s="120" customFormat="1">
-      <c r="A353" s="118">
+    <row r="353" spans="1:12" s="110" customFormat="1">
+      <c r="A353" s="108">
         <v>352</v>
       </c>
-      <c r="B353" s="118">
-        <v>1</v>
-      </c>
-      <c r="C353" s="121" t="s">
+      <c r="B353" s="108">
+        <v>1</v>
+      </c>
+      <c r="C353" s="111" t="s">
         <v>2057</v>
       </c>
-      <c r="D353" s="118" t="s">
+      <c r="D353" s="108" t="s">
         <v>2049</v>
       </c>
-      <c r="E353" s="118"/>
-      <c r="F353" s="118"/>
-      <c r="G353" s="118">
+      <c r="E353" s="108"/>
+      <c r="F353" s="108"/>
+      <c r="G353" s="108">
         <v>380</v>
       </c>
-      <c r="H353" s="118" t="b">
+      <c r="H353" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="I353" s="120" t="b">
+      <c r="I353" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="J353" s="118" t="s">
+      <c r="J353" s="108" t="s">
         <v>466</v>
       </c>
-      <c r="K353" s="118">
+      <c r="K353" s="108">
         <v>0</v>
       </c>
-      <c r="L353" s="122">
+      <c r="L353" s="112">
         <v>44201</v>
       </c>
     </row>
@@ -27282,30 +27268,30 @@
       <c r="B354" s="17">
         <v>1</v>
       </c>
-      <c r="C354" s="124" t="s">
+      <c r="C354" s="114" t="s">
         <v>2060</v>
       </c>
-      <c r="D354" s="124" t="s">
+      <c r="D354" s="114" t="s">
         <v>2061</v>
       </c>
-      <c r="E354" s="125"/>
-      <c r="F354" s="125"/>
-      <c r="G354" s="125">
+      <c r="E354" s="115"/>
+      <c r="F354" s="115"/>
+      <c r="G354" s="115">
         <v>382</v>
       </c>
-      <c r="H354" s="125" t="b">
+      <c r="H354" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="I354" s="126" t="b">
+      <c r="I354" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="J354" s="125" t="s">
+      <c r="J354" s="115" t="s">
         <v>466</v>
       </c>
-      <c r="K354" s="125">
+      <c r="K354" s="115">
         <v>1611014400</v>
       </c>
-      <c r="L354" s="124" t="s">
+      <c r="L354" s="114" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -27316,30 +27302,30 @@
       <c r="B355" s="17">
         <v>1</v>
       </c>
-      <c r="C355" s="124" t="s">
+      <c r="C355" s="114" t="s">
         <v>2063</v>
       </c>
-      <c r="D355" s="124" t="s">
+      <c r="D355" s="114" t="s">
         <v>2064</v>
       </c>
-      <c r="E355" s="125"/>
-      <c r="F355" s="125"/>
-      <c r="G355" s="125">
+      <c r="E355" s="115"/>
+      <c r="F355" s="115"/>
+      <c r="G355" s="115">
         <v>383</v>
       </c>
-      <c r="H355" s="125" t="b">
+      <c r="H355" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="I355" s="126" t="b">
+      <c r="I355" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="J355" s="125" t="s">
+      <c r="J355" s="115" t="s">
         <v>466</v>
       </c>
-      <c r="K355" s="125">
+      <c r="K355" s="115">
         <v>1611014400</v>
       </c>
-      <c r="L355" s="124" t="s">
+      <c r="L355" s="114" t="s">
         <v>2065</v>
       </c>
     </row>
@@ -27350,30 +27336,30 @@
       <c r="B356" s="17">
         <v>1</v>
       </c>
-      <c r="C356" s="124" t="s">
+      <c r="C356" s="114" t="s">
         <v>2066</v>
       </c>
-      <c r="D356" s="124" t="s">
+      <c r="D356" s="114" t="s">
         <v>2067</v>
       </c>
-      <c r="E356" s="125"/>
-      <c r="F356" s="125"/>
-      <c r="G356" s="125">
+      <c r="E356" s="115"/>
+      <c r="F356" s="115"/>
+      <c r="G356" s="115">
         <v>384</v>
       </c>
-      <c r="H356" s="125" t="b">
+      <c r="H356" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="I356" s="126" t="b">
+      <c r="I356" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="J356" s="125" t="s">
+      <c r="J356" s="115" t="s">
         <v>466</v>
       </c>
-      <c r="K356" s="125">
+      <c r="K356" s="115">
         <v>1611014400</v>
       </c>
-      <c r="L356" s="124" t="s">
+      <c r="L356" s="114" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -27390,8 +27376,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C920" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C926" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A946" sqref="A946"/>
@@ -27537,7 +27523,7 @@
       <c r="C5" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="81">
         <v>1</v>
       </c>
       <c r="E5" s="14">
@@ -27563,7 +27549,7 @@
       <c r="C6" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="81">
         <v>3</v>
       </c>
       <c r="E6" s="14">
@@ -27586,7 +27572,7 @@
       <c r="C7" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="81">
         <v>4</v>
       </c>
       <c r="E7" s="14">
@@ -27612,7 +27598,7 @@
       <c r="C8" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="81">
         <v>7</v>
       </c>
       <c r="E8" s="14">
@@ -27635,7 +27621,7 @@
       <c r="C9" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="81">
         <v>8</v>
       </c>
       <c r="E9" s="14">
@@ -30753,151 +30739,151 @@
         <v>919</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="112" customFormat="1">
-      <c r="A145" s="112">
+    <row r="145" spans="1:9" s="103" customFormat="1">
+      <c r="A145" s="103">
         <v>144</v>
       </c>
-      <c r="B145" s="112">
+      <c r="B145" s="103">
         <v>72</v>
       </c>
-      <c r="C145" s="113" t="s">
+      <c r="C145" s="104" t="s">
         <v>863</v>
       </c>
-      <c r="D145" s="113" t="s">
+      <c r="D145" s="104" t="s">
         <v>928</v>
       </c>
-      <c r="E145" s="112">
-        <v>2</v>
-      </c>
-      <c r="F145" s="112">
-        <v>1</v>
-      </c>
-      <c r="G145" s="113" t="s">
+      <c r="E145" s="103">
+        <v>2</v>
+      </c>
+      <c r="F145" s="103">
+        <v>1</v>
+      </c>
+      <c r="G145" s="104" t="s">
         <v>929</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="1:9" s="112" customFormat="1">
-      <c r="A146" s="112">
+    <row r="146" spans="1:9" s="103" customFormat="1">
+      <c r="A146" s="103">
         <v>145</v>
       </c>
-      <c r="B146" s="112">
+      <c r="B146" s="103">
         <v>72</v>
       </c>
-      <c r="C146" s="113" t="s">
+      <c r="C146" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D146" s="113" t="s">
+      <c r="D146" s="104" t="s">
         <v>1055</v>
       </c>
-      <c r="E146" s="112">
-        <v>2</v>
-      </c>
-      <c r="F146" s="112">
-        <v>1</v>
-      </c>
-      <c r="G146" s="113" t="s">
+      <c r="E146" s="103">
+        <v>2</v>
+      </c>
+      <c r="F146" s="103">
+        <v>1</v>
+      </c>
+      <c r="G146" s="104" t="s">
         <v>1089</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="1:9" s="112" customFormat="1">
-      <c r="A147" s="112">
+    <row r="147" spans="1:9" s="103" customFormat="1">
+      <c r="A147" s="103">
         <v>146</v>
       </c>
-      <c r="B147" s="112">
+      <c r="B147" s="103">
         <v>72</v>
       </c>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D147" s="113" t="s">
+      <c r="D147" s="104" t="s">
         <v>1831</v>
       </c>
-      <c r="E147" s="112">
-        <v>2</v>
-      </c>
-      <c r="F147" s="112">
-        <v>2</v>
-      </c>
-      <c r="G147" s="113" t="s">
+      <c r="E147" s="103">
+        <v>2</v>
+      </c>
+      <c r="F147" s="103">
+        <v>2</v>
+      </c>
+      <c r="G147" s="104" t="s">
         <v>950</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:9" s="112" customFormat="1">
-      <c r="A148" s="112">
+    <row r="148" spans="1:9" s="103" customFormat="1">
+      <c r="A148" s="103">
         <v>147</v>
       </c>
-      <c r="B148" s="112">
+      <c r="B148" s="103">
         <v>72</v>
       </c>
-      <c r="C148" s="113" t="s">
+      <c r="C148" s="104" t="s">
         <v>863</v>
       </c>
-      <c r="D148" s="113" t="s">
+      <c r="D148" s="104" t="s">
         <v>935</v>
       </c>
-      <c r="E148" s="112">
-        <v>2</v>
-      </c>
-      <c r="F148" s="112">
+      <c r="E148" s="103">
+        <v>2</v>
+      </c>
+      <c r="F148" s="103">
         <v>3</v>
       </c>
-      <c r="G148" s="113" t="s">
+      <c r="G148" s="104" t="s">
         <v>955</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="1:9" s="112" customFormat="1">
-      <c r="A149" s="112">
+    <row r="149" spans="1:9" s="103" customFormat="1">
+      <c r="A149" s="103">
         <v>148</v>
       </c>
-      <c r="B149" s="112">
+      <c r="B149" s="103">
         <v>72</v>
       </c>
-      <c r="C149" s="113" t="s">
+      <c r="C149" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D149" s="113" t="s">
+      <c r="D149" s="104" t="s">
         <v>1069</v>
       </c>
-      <c r="E149" s="112">
-        <v>2</v>
-      </c>
-      <c r="F149" s="112">
+      <c r="E149" s="103">
+        <v>2</v>
+      </c>
+      <c r="F149" s="103">
         <v>3</v>
       </c>
-      <c r="G149" s="113" t="s">
+      <c r="G149" s="104" t="s">
         <v>1083</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="1:9" s="112" customFormat="1">
-      <c r="A150" s="112">
+    <row r="150" spans="1:9" s="103" customFormat="1">
+      <c r="A150" s="103">
         <v>149</v>
       </c>
-      <c r="B150" s="112">
+      <c r="B150" s="103">
         <v>72</v>
       </c>
-      <c r="C150" s="113" t="s">
+      <c r="C150" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D150" s="113" t="s">
+      <c r="D150" s="104" t="s">
         <v>1939</v>
       </c>
-      <c r="E150" s="112">
-        <v>2</v>
-      </c>
-      <c r="F150" s="112">
+      <c r="E150" s="103">
+        <v>2</v>
+      </c>
+      <c r="F150" s="103">
         <v>4</v>
       </c>
-      <c r="G150" s="113" t="s">
+      <c r="G150" s="104" t="s">
         <v>1940</v>
       </c>
       <c r="H150" s="8"/>
@@ -31557,7 +31543,7 @@
       <c r="C179" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="D179" s="94" t="s">
+      <c r="D179" s="85" t="s">
         <v>1831</v>
       </c>
       <c r="E179" s="14">
@@ -31580,7 +31566,7 @@
       <c r="C180" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="D180" s="94" t="s">
+      <c r="D180" s="85" t="s">
         <v>1918</v>
       </c>
       <c r="E180" s="14">
@@ -31777,251 +31763,251 @@
         <v>930</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="103" customFormat="1">
+    <row r="189" spans="1:9" s="94" customFormat="1">
       <c r="A189" s="8">
         <v>188</v>
       </c>
-      <c r="B189" s="103">
+      <c r="B189" s="94">
         <v>79</v>
       </c>
-      <c r="C189" s="104" t="s">
+      <c r="C189" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D189" s="104" t="s">
+      <c r="D189" s="95" t="s">
         <v>928</v>
       </c>
-      <c r="E189" s="103">
-        <v>2</v>
-      </c>
-      <c r="F189" s="103">
-        <v>1</v>
-      </c>
-      <c r="G189" s="104" t="s">
+      <c r="E189" s="94">
+        <v>2</v>
+      </c>
+      <c r="F189" s="94">
+        <v>1</v>
+      </c>
+      <c r="G189" s="95" t="s">
         <v>929</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="1:9" s="103" customFormat="1">
+    <row r="190" spans="1:9" s="94" customFormat="1">
       <c r="A190" s="8">
         <v>189</v>
       </c>
-      <c r="B190" s="103">
+      <c r="B190" s="94">
         <v>79</v>
       </c>
-      <c r="C190" s="104" t="s">
+      <c r="C190" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D190" s="104" t="s">
+      <c r="D190" s="95" t="s">
         <v>1076</v>
       </c>
-      <c r="E190" s="103">
-        <v>2</v>
-      </c>
-      <c r="F190" s="103">
-        <v>1</v>
-      </c>
-      <c r="G190" s="104" t="s">
+      <c r="E190" s="94">
+        <v>2</v>
+      </c>
+      <c r="F190" s="94">
+        <v>1</v>
+      </c>
+      <c r="G190" s="95" t="s">
         <v>1092</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="1:9" s="103" customFormat="1">
+    <row r="191" spans="1:9" s="94" customFormat="1">
       <c r="A191" s="8">
         <v>190</v>
       </c>
-      <c r="B191" s="103">
+      <c r="B191" s="94">
         <v>79</v>
       </c>
-      <c r="C191" s="104" t="s">
+      <c r="C191" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D191" s="104" t="s">
+      <c r="D191" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E191" s="103">
-        <v>2</v>
-      </c>
-      <c r="F191" s="103">
-        <v>1</v>
-      </c>
-      <c r="G191" s="104" t="s">
+      <c r="E191" s="94">
+        <v>2</v>
+      </c>
+      <c r="F191" s="94">
+        <v>1</v>
+      </c>
+      <c r="G191" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="1:9" s="103" customFormat="1">
+    <row r="192" spans="1:9" s="94" customFormat="1">
       <c r="A192" s="8">
         <v>191</v>
       </c>
-      <c r="B192" s="103">
+      <c r="B192" s="94">
         <v>79</v>
       </c>
-      <c r="C192" s="104" t="s">
+      <c r="C192" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D192" s="104" t="s">
+      <c r="D192" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="E192" s="103">
-        <v>2</v>
-      </c>
-      <c r="F192" s="103">
-        <v>2</v>
-      </c>
-      <c r="G192" s="104" t="s">
+      <c r="E192" s="94">
+        <v>2</v>
+      </c>
+      <c r="F192" s="94">
+        <v>2</v>
+      </c>
+      <c r="G192" s="95" t="s">
         <v>950</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:9" s="103" customFormat="1">
+    <row r="193" spans="1:9" s="94" customFormat="1">
       <c r="A193" s="8">
         <v>192</v>
       </c>
-      <c r="B193" s="103">
+      <c r="B193" s="94">
         <v>79</v>
       </c>
-      <c r="C193" s="104" t="s">
+      <c r="C193" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D193" s="104" t="s">
+      <c r="D193" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E193" s="103">
-        <v>2</v>
-      </c>
-      <c r="F193" s="103">
-        <v>2</v>
-      </c>
-      <c r="G193" s="104" t="s">
+      <c r="E193" s="94">
+        <v>2</v>
+      </c>
+      <c r="F193" s="94">
+        <v>2</v>
+      </c>
+      <c r="G193" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="1:9" s="103" customFormat="1">
+    <row r="194" spans="1:9" s="94" customFormat="1">
       <c r="A194" s="8">
         <v>193</v>
       </c>
-      <c r="B194" s="103">
+      <c r="B194" s="94">
         <v>79</v>
       </c>
-      <c r="C194" s="104" t="s">
+      <c r="C194" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D194" s="104" t="s">
+      <c r="D194" s="95" t="s">
         <v>935</v>
       </c>
-      <c r="E194" s="103">
-        <v>2</v>
-      </c>
-      <c r="F194" s="103">
+      <c r="E194" s="94">
+        <v>2</v>
+      </c>
+      <c r="F194" s="94">
         <v>3</v>
       </c>
-      <c r="G194" s="104" t="s">
+      <c r="G194" s="95" t="s">
         <v>955</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="1:9" s="103" customFormat="1">
+    <row r="195" spans="1:9" s="94" customFormat="1">
       <c r="A195" s="8">
         <v>194</v>
       </c>
-      <c r="B195" s="103">
+      <c r="B195" s="94">
         <v>79</v>
       </c>
-      <c r="C195" s="104" t="s">
+      <c r="C195" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D195" s="104" t="s">
+      <c r="D195" s="95" t="s">
         <v>1072</v>
       </c>
-      <c r="E195" s="103">
-        <v>2</v>
-      </c>
-      <c r="F195" s="103">
+      <c r="E195" s="94">
+        <v>2</v>
+      </c>
+      <c r="F195" s="94">
         <v>3</v>
       </c>
-      <c r="G195" s="104" t="s">
+      <c r="G195" s="95" t="s">
         <v>1079</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="1:9" s="103" customFormat="1">
+    <row r="196" spans="1:9" s="94" customFormat="1">
       <c r="A196" s="8">
         <v>195</v>
       </c>
-      <c r="B196" s="103">
+      <c r="B196" s="94">
         <v>79</v>
       </c>
-      <c r="C196" s="103" t="s">
+      <c r="C196" s="94" t="s">
         <v>863</v>
       </c>
-      <c r="D196" s="104" t="s">
+      <c r="D196" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E196" s="103">
-        <v>2</v>
-      </c>
-      <c r="F196" s="103">
+      <c r="E196" s="94">
+        <v>2</v>
+      </c>
+      <c r="F196" s="94">
         <v>3</v>
       </c>
-      <c r="G196" s="104" t="s">
+      <c r="G196" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="1:9" s="103" customFormat="1">
+    <row r="197" spans="1:9" s="94" customFormat="1">
       <c r="A197" s="8">
         <v>196</v>
       </c>
-      <c r="B197" s="103">
+      <c r="B197" s="94">
         <v>79</v>
       </c>
-      <c r="C197" s="104" t="s">
+      <c r="C197" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D197" s="105" t="s">
+      <c r="D197" s="96" t="s">
         <v>1831</v>
       </c>
-      <c r="E197" s="103">
-        <v>2</v>
-      </c>
-      <c r="F197" s="103">
+      <c r="E197" s="94">
+        <v>2</v>
+      </c>
+      <c r="F197" s="94">
         <v>4</v>
       </c>
-      <c r="G197" s="104" t="s">
+      <c r="G197" s="95" t="s">
         <v>1575</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" s="103" customFormat="1">
+    <row r="198" spans="1:9" s="94" customFormat="1">
       <c r="A198" s="8">
         <v>197</v>
       </c>
-      <c r="B198" s="103">
+      <c r="B198" s="94">
         <v>79</v>
       </c>
-      <c r="C198" s="104" t="s">
+      <c r="C198" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D198" s="105" t="s">
+      <c r="D198" s="96" t="s">
         <v>1918</v>
       </c>
-      <c r="E198" s="103">
-        <v>2</v>
-      </c>
-      <c r="F198" s="103">
+      <c r="E198" s="94">
+        <v>2</v>
+      </c>
+      <c r="F198" s="94">
         <v>5</v>
       </c>
-      <c r="G198" s="104" t="s">
+      <c r="G198" s="95" t="s">
         <v>1835</v>
       </c>
       <c r="H198" s="8"/>
@@ -39090,7 +39076,7 @@
       <c r="A503" s="8">
         <v>502</v>
       </c>
-      <c r="B503" s="77">
+      <c r="B503" s="74">
         <v>179</v>
       </c>
       <c r="C503" s="19" t="s">
@@ -39099,10 +39085,10 @@
       <c r="D503" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E503" s="77">
-        <v>2</v>
-      </c>
-      <c r="F503" s="77">
+      <c r="E503" s="74">
+        <v>2</v>
+      </c>
+      <c r="F503" s="74">
         <v>1</v>
       </c>
       <c r="G503" s="19" t="s">
@@ -39115,7 +39101,7 @@
       <c r="A504" s="8">
         <v>503</v>
       </c>
-      <c r="B504" s="77">
+      <c r="B504" s="74">
         <v>179</v>
       </c>
       <c r="C504" s="19" t="s">
@@ -39124,10 +39110,10 @@
       <c r="D504" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E504" s="77">
-        <v>2</v>
-      </c>
-      <c r="F504" s="77">
+      <c r="E504" s="74">
+        <v>2</v>
+      </c>
+      <c r="F504" s="74">
         <v>2</v>
       </c>
       <c r="G504" s="19" t="s">
@@ -39140,7 +39126,7 @@
       <c r="A505" s="8">
         <v>504</v>
       </c>
-      <c r="B505" s="84">
+      <c r="B505" s="78">
         <v>180</v>
       </c>
       <c r="C505" s="43" t="s">
@@ -39149,10 +39135,10 @@
       <c r="D505" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="E505" s="84">
+      <c r="E505" s="78">
         <v>5</v>
       </c>
-      <c r="F505" s="84">
+      <c r="F505" s="78">
         <v>1</v>
       </c>
       <c r="G505" s="43" t="s">
@@ -39165,19 +39151,19 @@
       <c r="A506" s="8">
         <v>505</v>
       </c>
-      <c r="B506" s="84">
+      <c r="B506" s="78">
         <v>180</v>
       </c>
       <c r="C506" s="43" t="s">
         <v>1128</v>
       </c>
-      <c r="D506" s="84">
-        <v>1</v>
-      </c>
-      <c r="E506" s="84">
+      <c r="D506" s="78">
+        <v>1</v>
+      </c>
+      <c r="E506" s="78">
         <v>3</v>
       </c>
-      <c r="F506" s="84">
+      <c r="F506" s="78">
         <v>1</v>
       </c>
       <c r="G506" s="43" t="s">
@@ -39190,19 +39176,19 @@
       <c r="A507" s="8">
         <v>506</v>
       </c>
-      <c r="B507" s="84">
+      <c r="B507" s="78">
         <v>180</v>
       </c>
       <c r="C507" s="43" t="s">
         <v>1140</v>
       </c>
-      <c r="D507" s="84">
+      <c r="D507" s="78">
         <v>3</v>
       </c>
-      <c r="E507" s="84">
+      <c r="E507" s="78">
         <v>4</v>
       </c>
-      <c r="F507" s="84">
+      <c r="F507" s="78">
         <v>1</v>
       </c>
       <c r="G507" s="43" t="s">
@@ -39215,22 +39201,22 @@
       <c r="A508" s="8">
         <v>507</v>
       </c>
-      <c r="B508" s="75">
+      <c r="B508" s="72">
         <v>181</v>
       </c>
-      <c r="C508" s="76" t="s">
+      <c r="C508" s="73" t="s">
         <v>1063</v>
       </c>
-      <c r="D508" s="76" t="s">
+      <c r="D508" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E508" s="75">
+      <c r="E508" s="72">
         <v>5</v>
       </c>
-      <c r="F508" s="75">
-        <v>1</v>
-      </c>
-      <c r="G508" s="76" t="s">
+      <c r="F508" s="72">
+        <v>1</v>
+      </c>
+      <c r="G508" s="73" t="s">
         <v>922</v>
       </c>
       <c r="H508" s="8"/>
@@ -39240,22 +39226,22 @@
       <c r="A509" s="8">
         <v>508</v>
       </c>
-      <c r="B509" s="75">
+      <c r="B509" s="72">
         <v>181</v>
       </c>
-      <c r="C509" s="76" t="s">
+      <c r="C509" s="73" t="s">
         <v>1128</v>
       </c>
-      <c r="D509" s="75">
+      <c r="D509" s="72">
         <v>4</v>
       </c>
-      <c r="E509" s="75">
+      <c r="E509" s="72">
         <v>3</v>
       </c>
-      <c r="F509" s="75">
-        <v>1</v>
-      </c>
-      <c r="G509" s="76" t="s">
+      <c r="F509" s="72">
+        <v>1</v>
+      </c>
+      <c r="G509" s="73" t="s">
         <v>1147</v>
       </c>
       <c r="H509" s="8"/>
@@ -39390,22 +39376,22 @@
       <c r="A515" s="8">
         <v>514</v>
       </c>
-      <c r="B515" s="75">
+      <c r="B515" s="72">
         <v>186</v>
       </c>
-      <c r="C515" s="76" t="s">
+      <c r="C515" s="73" t="s">
         <v>1063</v>
       </c>
-      <c r="D515" s="76" t="s">
+      <c r="D515" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E515" s="75">
-        <v>2</v>
-      </c>
-      <c r="F515" s="75">
-        <v>1</v>
-      </c>
-      <c r="G515" s="76" t="s">
+      <c r="E515" s="72">
+        <v>2</v>
+      </c>
+      <c r="F515" s="72">
+        <v>1</v>
+      </c>
+      <c r="G515" s="73" t="s">
         <v>1187</v>
       </c>
       <c r="H515" s="8"/>
@@ -39515,7 +39501,7 @@
       <c r="A520" s="8">
         <v>519</v>
       </c>
-      <c r="B520" s="77">
+      <c r="B520" s="74">
         <v>189</v>
       </c>
       <c r="C520" s="19" t="s">
@@ -39524,10 +39510,10 @@
       <c r="D520" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E520" s="77">
+      <c r="E520" s="74">
         <v>5</v>
       </c>
-      <c r="F520" s="77">
+      <c r="F520" s="74">
         <v>1</v>
       </c>
       <c r="G520" s="19" t="s">
@@ -39540,19 +39526,19 @@
       <c r="A521" s="8">
         <v>520</v>
       </c>
-      <c r="B521" s="77">
+      <c r="B521" s="74">
         <v>189</v>
       </c>
       <c r="C521" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D521" s="77">
-        <v>1</v>
-      </c>
-      <c r="E521" s="77">
+      <c r="D521" s="74">
+        <v>1</v>
+      </c>
+      <c r="E521" s="74">
         <v>3</v>
       </c>
-      <c r="F521" s="77">
+      <c r="F521" s="74">
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
@@ -39565,19 +39551,19 @@
       <c r="A522" s="8">
         <v>521</v>
       </c>
-      <c r="B522" s="77">
+      <c r="B522" s="74">
         <v>189</v>
       </c>
       <c r="C522" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D522" s="77">
-        <v>2</v>
-      </c>
-      <c r="E522" s="77">
+      <c r="D522" s="74">
+        <v>2</v>
+      </c>
+      <c r="E522" s="74">
         <v>4</v>
       </c>
-      <c r="F522" s="77">
+      <c r="F522" s="74">
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
@@ -39590,7 +39576,7 @@
       <c r="A523" s="8">
         <v>522</v>
       </c>
-      <c r="B523" s="77">
+      <c r="B523" s="74">
         <v>190</v>
       </c>
       <c r="C523" s="19" t="s">
@@ -39599,10 +39585,10 @@
       <c r="D523" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="E523" s="77">
+      <c r="E523" s="74">
         <v>5</v>
       </c>
-      <c r="F523" s="77">
+      <c r="F523" s="74">
         <v>1</v>
       </c>
       <c r="G523" s="19" t="s">
@@ -39615,19 +39601,19 @@
       <c r="A524" s="8">
         <v>523</v>
       </c>
-      <c r="B524" s="77">
+      <c r="B524" s="74">
         <v>190</v>
       </c>
       <c r="C524" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D524" s="77">
+      <c r="D524" s="74">
         <v>3</v>
       </c>
-      <c r="E524" s="77">
+      <c r="E524" s="74">
         <v>3</v>
       </c>
-      <c r="F524" s="77">
+      <c r="F524" s="74">
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
@@ -39640,19 +39626,19 @@
       <c r="A525" s="8">
         <v>524</v>
       </c>
-      <c r="B525" s="77">
+      <c r="B525" s="74">
         <v>190</v>
       </c>
       <c r="C525" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D525" s="77">
+      <c r="D525" s="74">
         <v>6</v>
       </c>
-      <c r="E525" s="77">
+      <c r="E525" s="74">
         <v>4</v>
       </c>
-      <c r="F525" s="77">
+      <c r="F525" s="74">
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
@@ -39665,7 +39651,7 @@
       <c r="A526" s="8">
         <v>525</v>
       </c>
-      <c r="B526" s="77">
+      <c r="B526" s="74">
         <v>191</v>
       </c>
       <c r="C526" s="19" t="s">
@@ -39674,10 +39660,10 @@
       <c r="D526" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E526" s="77">
+      <c r="E526" s="74">
         <v>5</v>
       </c>
-      <c r="F526" s="77">
+      <c r="F526" s="74">
         <v>1</v>
       </c>
       <c r="G526" s="19" t="s">
@@ -39690,19 +39676,19 @@
       <c r="A527" s="8">
         <v>526</v>
       </c>
-      <c r="B527" s="77">
+      <c r="B527" s="74">
         <v>191</v>
       </c>
       <c r="C527" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D527" s="77">
+      <c r="D527" s="74">
         <v>7</v>
       </c>
-      <c r="E527" s="77">
+      <c r="E527" s="74">
         <v>3</v>
       </c>
-      <c r="F527" s="77">
+      <c r="F527" s="74">
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
@@ -39715,22 +39701,22 @@
       <c r="A528" s="8">
         <v>527</v>
       </c>
-      <c r="B528" s="88">
+      <c r="B528" s="79">
         <v>192</v>
       </c>
-      <c r="C528" s="89" t="s">
+      <c r="C528" s="80" t="s">
         <v>1063</v>
       </c>
-      <c r="D528" s="89" t="s">
+      <c r="D528" s="80" t="s">
         <v>864</v>
       </c>
-      <c r="E528" s="88">
+      <c r="E528" s="79">
         <v>5</v>
       </c>
-      <c r="F528" s="88">
-        <v>1</v>
-      </c>
-      <c r="G528" s="89" t="s">
+      <c r="F528" s="79">
+        <v>1</v>
+      </c>
+      <c r="G528" s="80" t="s">
         <v>922</v>
       </c>
       <c r="H528" s="8"/>
@@ -39740,22 +39726,22 @@
       <c r="A529" s="8">
         <v>528</v>
       </c>
-      <c r="B529" s="88">
+      <c r="B529" s="79">
         <v>192</v>
       </c>
-      <c r="C529" s="89" t="s">
+      <c r="C529" s="80" t="s">
         <v>1128</v>
       </c>
-      <c r="D529" s="88">
-        <v>1</v>
-      </c>
-      <c r="E529" s="88">
+      <c r="D529" s="79">
+        <v>1</v>
+      </c>
+      <c r="E529" s="79">
         <v>3</v>
       </c>
-      <c r="F529" s="88">
-        <v>1</v>
-      </c>
-      <c r="G529" s="89" t="s">
+      <c r="F529" s="79">
+        <v>1</v>
+      </c>
+      <c r="G529" s="80" t="s">
         <v>1148</v>
       </c>
       <c r="H529" s="8"/>
@@ -39765,22 +39751,22 @@
       <c r="A530" s="8">
         <v>529</v>
       </c>
-      <c r="B530" s="84">
+      <c r="B530" s="78">
         <v>193</v>
       </c>
-      <c r="C530" s="84" t="s">
+      <c r="C530" s="78" t="s">
         <v>876</v>
       </c>
-      <c r="D530" s="84">
+      <c r="D530" s="78">
         <v>0</v>
       </c>
-      <c r="E530" s="84">
-        <v>2</v>
-      </c>
-      <c r="F530" s="84">
-        <v>1</v>
-      </c>
-      <c r="G530" s="84" t="s">
+      <c r="E530" s="78">
+        <v>2</v>
+      </c>
+      <c r="F530" s="78">
+        <v>1</v>
+      </c>
+      <c r="G530" s="78" t="s">
         <v>1020</v>
       </c>
       <c r="H530" s="8"/>
@@ -39790,19 +39776,19 @@
       <c r="A531" s="8">
         <v>530</v>
       </c>
-      <c r="B531" s="84">
+      <c r="B531" s="78">
         <v>194</v>
       </c>
-      <c r="C531" s="84" t="s">
+      <c r="C531" s="78" t="s">
         <v>876</v>
       </c>
-      <c r="D531" s="84">
+      <c r="D531" s="78">
         <v>3</v>
       </c>
-      <c r="E531" s="84">
-        <v>2</v>
-      </c>
-      <c r="F531" s="84">
+      <c r="E531" s="78">
+        <v>2</v>
+      </c>
+      <c r="F531" s="78">
         <v>1</v>
       </c>
       <c r="G531" s="43" t="s">
@@ -39815,19 +39801,19 @@
       <c r="A532" s="8">
         <v>531</v>
       </c>
-      <c r="B532" s="77">
+      <c r="B532" s="74">
         <v>195</v>
       </c>
-      <c r="C532" s="77" t="s">
+      <c r="C532" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D532" s="19">
         <v>1209600</v>
       </c>
-      <c r="E532" s="77">
+      <c r="E532" s="74">
         <v>4</v>
       </c>
-      <c r="F532" s="77">
+      <c r="F532" s="74">
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
@@ -39840,7 +39826,7 @@
       <c r="A533" s="8">
         <v>532</v>
       </c>
-      <c r="B533" s="77">
+      <c r="B533" s="74">
         <v>195</v>
       </c>
       <c r="C533" s="19" t="s">
@@ -39849,10 +39835,10 @@
       <c r="D533" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E533" s="77">
-        <v>2</v>
-      </c>
-      <c r="F533" s="77">
+      <c r="E533" s="74">
+        <v>2</v>
+      </c>
+      <c r="F533" s="74">
         <v>1</v>
       </c>
       <c r="G533" s="19" t="s">
@@ -39865,19 +39851,19 @@
       <c r="A534" s="8">
         <v>533</v>
       </c>
-      <c r="B534" s="77">
+      <c r="B534" s="74">
         <v>195</v>
       </c>
-      <c r="C534" s="77" t="s">
+      <c r="C534" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D534" s="19">
         <v>1209600</v>
       </c>
-      <c r="E534" s="77">
+      <c r="E534" s="74">
         <v>4</v>
       </c>
-      <c r="F534" s="77">
+      <c r="F534" s="74">
         <v>2</v>
       </c>
       <c r="G534" s="19" t="s">
@@ -39890,7 +39876,7 @@
       <c r="A535" s="8">
         <v>534</v>
       </c>
-      <c r="B535" s="77">
+      <c r="B535" s="74">
         <v>195</v>
       </c>
       <c r="C535" s="19" t="s">
@@ -39899,10 +39885,10 @@
       <c r="D535" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="E535" s="77">
-        <v>2</v>
-      </c>
-      <c r="F535" s="77">
+      <c r="E535" s="74">
+        <v>2</v>
+      </c>
+      <c r="F535" s="74">
         <v>2</v>
       </c>
       <c r="G535" s="19" t="s">
@@ -39915,19 +39901,19 @@
       <c r="A536" s="8">
         <v>535</v>
       </c>
-      <c r="B536" s="77">
+      <c r="B536" s="74">
         <v>196</v>
       </c>
-      <c r="C536" s="77" t="s">
+      <c r="C536" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D536" s="19">
         <v>1209600</v>
       </c>
-      <c r="E536" s="77">
+      <c r="E536" s="74">
         <v>4</v>
       </c>
-      <c r="F536" s="77">
+      <c r="F536" s="74">
         <v>1</v>
       </c>
       <c r="G536" s="19" t="s">
@@ -39940,7 +39926,7 @@
       <c r="A537" s="8">
         <v>536</v>
       </c>
-      <c r="B537" s="77">
+      <c r="B537" s="74">
         <v>196</v>
       </c>
       <c r="C537" s="19" t="s">
@@ -39949,10 +39935,10 @@
       <c r="D537" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E537" s="77">
-        <v>2</v>
-      </c>
-      <c r="F537" s="77">
+      <c r="E537" s="74">
+        <v>2</v>
+      </c>
+      <c r="F537" s="74">
         <v>1</v>
       </c>
       <c r="G537" s="19" t="s">
@@ -39965,19 +39951,19 @@
       <c r="A538" s="8">
         <v>537</v>
       </c>
-      <c r="B538" s="77">
+      <c r="B538" s="74">
         <v>196</v>
       </c>
-      <c r="C538" s="77" t="s">
+      <c r="C538" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D538" s="19">
         <v>1209600</v>
       </c>
-      <c r="E538" s="77">
+      <c r="E538" s="74">
         <v>4</v>
       </c>
-      <c r="F538" s="77">
+      <c r="F538" s="74">
         <v>2</v>
       </c>
       <c r="G538" s="19" t="s">
@@ -39990,7 +39976,7 @@
       <c r="A539" s="8">
         <v>538</v>
       </c>
-      <c r="B539" s="77">
+      <c r="B539" s="74">
         <v>196</v>
       </c>
       <c r="C539" s="19" t="s">
@@ -39999,10 +39985,10 @@
       <c r="D539" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="E539" s="77">
-        <v>2</v>
-      </c>
-      <c r="F539" s="77">
+      <c r="E539" s="74">
+        <v>2</v>
+      </c>
+      <c r="F539" s="74">
         <v>2</v>
       </c>
       <c r="G539" s="19" t="s">
@@ -40015,7 +40001,7 @@
       <c r="A540" s="8">
         <v>539</v>
       </c>
-      <c r="B540" s="77">
+      <c r="B540" s="74">
         <v>197</v>
       </c>
       <c r="C540" s="19" t="s">
@@ -40024,10 +40010,10 @@
       <c r="D540" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E540" s="77">
-        <v>2</v>
-      </c>
-      <c r="F540" s="77">
+      <c r="E540" s="74">
+        <v>2</v>
+      </c>
+      <c r="F540" s="74">
         <v>1</v>
       </c>
       <c r="G540" s="19" t="s">
@@ -40040,7 +40026,7 @@
       <c r="A541" s="8">
         <v>540</v>
       </c>
-      <c r="B541" s="77">
+      <c r="B541" s="74">
         <v>197</v>
       </c>
       <c r="C541" s="19" t="s">
@@ -40049,10 +40035,10 @@
       <c r="D541" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E541" s="77">
-        <v>2</v>
-      </c>
-      <c r="F541" s="77">
+      <c r="E541" s="74">
+        <v>2</v>
+      </c>
+      <c r="F541" s="74">
         <v>2</v>
       </c>
       <c r="G541" s="19" t="s">
@@ -40065,7 +40051,7 @@
       <c r="A542" s="8">
         <v>541</v>
       </c>
-      <c r="B542" s="77">
+      <c r="B542" s="74">
         <v>197</v>
       </c>
       <c r="C542" s="19" t="s">
@@ -40074,10 +40060,10 @@
       <c r="D542" s="19" t="s">
         <v>1260</v>
       </c>
-      <c r="E542" s="77">
-        <v>2</v>
-      </c>
-      <c r="F542" s="77">
+      <c r="E542" s="74">
+        <v>2</v>
+      </c>
+      <c r="F542" s="74">
         <v>3</v>
       </c>
       <c r="G542" s="19" t="s">
@@ -40115,7 +40101,7 @@
       <c r="A544" s="8">
         <v>543</v>
       </c>
-      <c r="B544" s="77">
+      <c r="B544" s="74">
         <v>199</v>
       </c>
       <c r="C544" s="19" t="s">
@@ -40124,10 +40110,10 @@
       <c r="D544" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="E544" s="77">
-        <v>2</v>
-      </c>
-      <c r="F544" s="77">
+      <c r="E544" s="74">
+        <v>2</v>
+      </c>
+      <c r="F544" s="74">
         <v>1</v>
       </c>
       <c r="G544" s="19" t="s">
@@ -40140,7 +40126,7 @@
       <c r="A545" s="8">
         <v>544</v>
       </c>
-      <c r="B545" s="77">
+      <c r="B545" s="74">
         <v>199</v>
       </c>
       <c r="C545" s="19" t="s">
@@ -40149,10 +40135,10 @@
       <c r="D545" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E545" s="77">
+      <c r="E545" s="74">
         <v>5</v>
       </c>
-      <c r="F545" s="77">
+      <c r="F545" s="74">
         <v>1</v>
       </c>
       <c r="G545" s="19" t="s">
@@ -40165,7 +40151,7 @@
       <c r="A546" s="8">
         <v>545</v>
       </c>
-      <c r="B546" s="77">
+      <c r="B546" s="74">
         <v>199</v>
       </c>
       <c r="C546" s="19" t="s">
@@ -40174,10 +40160,10 @@
       <c r="D546" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="E546" s="77">
-        <v>2</v>
-      </c>
-      <c r="F546" s="77">
+      <c r="E546" s="74">
+        <v>2</v>
+      </c>
+      <c r="F546" s="74">
         <v>2</v>
       </c>
       <c r="G546" s="19" t="s">
@@ -40190,7 +40176,7 @@
       <c r="A547" s="8">
         <v>546</v>
       </c>
-      <c r="B547" s="77">
+      <c r="B547" s="74">
         <v>199</v>
       </c>
       <c r="C547" s="19" t="s">
@@ -40199,10 +40185,10 @@
       <c r="D547" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E547" s="77">
+      <c r="E547" s="74">
         <v>5</v>
       </c>
-      <c r="F547" s="77">
+      <c r="F547" s="74">
         <v>2</v>
       </c>
       <c r="G547" s="19" t="s">
@@ -40215,7 +40201,7 @@
       <c r="A548" s="8">
         <v>547</v>
       </c>
-      <c r="B548" s="77">
+      <c r="B548" s="74">
         <v>200</v>
       </c>
       <c r="C548" s="19" t="s">
@@ -40224,10 +40210,10 @@
       <c r="D548" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E548" s="77">
+      <c r="E548" s="74">
         <v>5</v>
       </c>
-      <c r="F548" s="77">
+      <c r="F548" s="74">
         <v>1</v>
       </c>
       <c r="G548" s="19" t="s">
@@ -40240,7 +40226,7 @@
       <c r="A549" s="8">
         <v>548</v>
       </c>
-      <c r="B549" s="77">
+      <c r="B549" s="74">
         <v>200</v>
       </c>
       <c r="C549" s="19" t="s">
@@ -40249,10 +40235,10 @@
       <c r="D549" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E549" s="77">
-        <v>2</v>
-      </c>
-      <c r="F549" s="77">
+      <c r="E549" s="74">
+        <v>2</v>
+      </c>
+      <c r="F549" s="74">
         <v>1</v>
       </c>
       <c r="G549" s="19" t="s">
@@ -40265,7 +40251,7 @@
       <c r="A550" s="8">
         <v>549</v>
       </c>
-      <c r="B550" s="77">
+      <c r="B550" s="74">
         <v>200</v>
       </c>
       <c r="C550" s="19" t="s">
@@ -40274,10 +40260,10 @@
       <c r="D550" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E550" s="77">
+      <c r="E550" s="74">
         <v>5</v>
       </c>
-      <c r="F550" s="77">
+      <c r="F550" s="74">
         <v>2</v>
       </c>
       <c r="G550" s="19" t="s">
@@ -40290,7 +40276,7 @@
       <c r="A551" s="8">
         <v>550</v>
       </c>
-      <c r="B551" s="77">
+      <c r="B551" s="74">
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
@@ -40299,10 +40285,10 @@
       <c r="D551" s="19" t="s">
         <v>1068</v>
       </c>
-      <c r="E551" s="77">
-        <v>2</v>
-      </c>
-      <c r="F551" s="77">
+      <c r="E551" s="74">
+        <v>2</v>
+      </c>
+      <c r="F551" s="74">
         <v>2</v>
       </c>
       <c r="G551" s="19" t="s">
@@ -40315,7 +40301,7 @@
       <c r="A552" s="8">
         <v>551</v>
       </c>
-      <c r="B552" s="77">
+      <c r="B552" s="74">
         <v>201</v>
       </c>
       <c r="C552" s="19" t="s">
@@ -40324,10 +40310,10 @@
       <c r="D552" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E552" s="77">
+      <c r="E552" s="74">
         <v>5</v>
       </c>
-      <c r="F552" s="77">
+      <c r="F552" s="74">
         <v>2</v>
       </c>
       <c r="G552" s="19" t="s">
@@ -40365,7 +40351,7 @@
       <c r="A554" s="8">
         <v>553</v>
       </c>
-      <c r="B554" s="77">
+      <c r="B554" s="74">
         <v>203</v>
       </c>
       <c r="C554" s="19" t="s">
@@ -40374,10 +40360,10 @@
       <c r="D554" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E554" s="77">
-        <v>2</v>
-      </c>
-      <c r="F554" s="77">
+      <c r="E554" s="74">
+        <v>2</v>
+      </c>
+      <c r="F554" s="74">
         <v>1</v>
       </c>
       <c r="G554" s="19" t="s">
@@ -40390,7 +40376,7 @@
       <c r="A555" s="8">
         <v>554</v>
       </c>
-      <c r="B555" s="77">
+      <c r="B555" s="74">
         <v>203</v>
       </c>
       <c r="C555" s="19" t="s">
@@ -40399,10 +40385,10 @@
       <c r="D555" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E555" s="77">
-        <v>2</v>
-      </c>
-      <c r="F555" s="77">
+      <c r="E555" s="74">
+        <v>2</v>
+      </c>
+      <c r="F555" s="74">
         <v>2</v>
       </c>
       <c r="G555" s="19" t="s">
@@ -40415,19 +40401,19 @@
       <c r="A556" s="8">
         <v>555</v>
       </c>
-      <c r="B556" s="77">
+      <c r="B556" s="74">
         <v>203</v>
       </c>
       <c r="C556" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="D556" s="77">
-        <v>1</v>
-      </c>
-      <c r="E556" s="77">
+      <c r="D556" s="74">
+        <v>1</v>
+      </c>
+      <c r="E556" s="74">
         <v>3</v>
       </c>
-      <c r="F556" s="77">
+      <c r="F556" s="74">
         <v>3</v>
       </c>
       <c r="G556" s="19" t="s">
@@ -44833,22 +44819,22 @@
       <c r="A734" s="8">
         <v>733</v>
       </c>
-      <c r="B734" s="77">
+      <c r="B734" s="74">
         <v>294</v>
       </c>
       <c r="C734" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D734" s="77">
+      <c r="D734" s="74">
         <v>3</v>
       </c>
-      <c r="E734" s="77">
+      <c r="E734" s="74">
         <v>4</v>
       </c>
-      <c r="F734" s="77">
-        <v>1</v>
-      </c>
-      <c r="G734" s="77" t="s">
+      <c r="F734" s="74">
+        <v>1</v>
+      </c>
+      <c r="G734" s="74" t="s">
         <v>1475</v>
       </c>
       <c r="H734" s="8"/>
@@ -44858,19 +44844,19 @@
       <c r="A735" s="8">
         <v>734</v>
       </c>
-      <c r="B735" s="77">
+      <c r="B735" s="74">
         <v>294</v>
       </c>
-      <c r="C735" s="77" t="s">
+      <c r="C735" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D735" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E735" s="77">
-        <v>2</v>
-      </c>
-      <c r="F735" s="77">
+      <c r="E735" s="74">
+        <v>2</v>
+      </c>
+      <c r="F735" s="74">
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
@@ -44883,19 +44869,19 @@
       <c r="A736" s="8">
         <v>735</v>
       </c>
-      <c r="B736" s="77">
+      <c r="B736" s="74">
         <v>295</v>
       </c>
-      <c r="C736" s="77" t="s">
+      <c r="C736" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D736" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E736" s="77">
+      <c r="E736" s="74">
         <v>5</v>
       </c>
-      <c r="F736" s="77">
+      <c r="F736" s="74">
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
@@ -44908,19 +44894,19 @@
       <c r="A737" s="8">
         <v>736</v>
       </c>
-      <c r="B737" s="77">
+      <c r="B737" s="74">
         <v>295</v>
       </c>
       <c r="C737" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D737" s="77">
+      <c r="D737" s="74">
         <v>4</v>
       </c>
-      <c r="E737" s="77">
+      <c r="E737" s="74">
         <v>3</v>
       </c>
-      <c r="F737" s="77">
+      <c r="F737" s="74">
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
@@ -44933,19 +44919,19 @@
       <c r="A738" s="8">
         <v>737</v>
       </c>
-      <c r="B738" s="77">
+      <c r="B738" s="74">
         <v>295</v>
       </c>
       <c r="C738" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D738" s="77">
+      <c r="D738" s="74">
         <v>7</v>
       </c>
-      <c r="E738" s="77">
+      <c r="E738" s="74">
         <v>4</v>
       </c>
-      <c r="F738" s="77">
+      <c r="F738" s="74">
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
@@ -44958,19 +44944,19 @@
       <c r="A739" s="8">
         <v>738</v>
       </c>
-      <c r="B739" s="77">
+      <c r="B739" s="74">
         <v>296</v>
       </c>
-      <c r="C739" s="77" t="s">
+      <c r="C739" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D739" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E739" s="77">
+      <c r="E739" s="74">
         <v>5</v>
       </c>
-      <c r="F739" s="77">
+      <c r="F739" s="74">
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
@@ -44983,19 +44969,19 @@
       <c r="A740" s="8">
         <v>739</v>
       </c>
-      <c r="B740" s="77">
+      <c r="B740" s="74">
         <v>296</v>
       </c>
       <c r="C740" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D740" s="77">
+      <c r="D740" s="74">
         <v>8</v>
       </c>
-      <c r="E740" s="77">
+      <c r="E740" s="74">
         <v>3</v>
       </c>
-      <c r="F740" s="77">
+      <c r="F740" s="74">
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
@@ -45008,19 +44994,19 @@
       <c r="A741" s="8">
         <v>740</v>
       </c>
-      <c r="B741" s="77">
+      <c r="B741" s="74">
         <v>296</v>
       </c>
       <c r="C741" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D741" s="77">
+      <c r="D741" s="74">
         <v>10</v>
       </c>
-      <c r="E741" s="77">
+      <c r="E741" s="74">
         <v>4</v>
       </c>
-      <c r="F741" s="77">
+      <c r="F741" s="74">
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
@@ -45033,19 +45019,19 @@
       <c r="A742" s="8">
         <v>741</v>
       </c>
-      <c r="B742" s="77">
+      <c r="B742" s="74">
         <v>297</v>
       </c>
-      <c r="C742" s="77" t="s">
+      <c r="C742" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D742" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E742" s="77">
+      <c r="E742" s="74">
         <v>5</v>
       </c>
-      <c r="F742" s="77">
+      <c r="F742" s="74">
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
@@ -45058,19 +45044,19 @@
       <c r="A743" s="8">
         <v>742</v>
       </c>
-      <c r="B743" s="77">
+      <c r="B743" s="74">
         <v>297</v>
       </c>
-      <c r="C743" s="77" t="s">
+      <c r="C743" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D743" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E743" s="77">
-        <v>2</v>
-      </c>
-      <c r="F743" s="77">
+      <c r="E743" s="74">
+        <v>2</v>
+      </c>
+      <c r="F743" s="74">
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
@@ -47233,22 +47219,22 @@
       <c r="A830" s="8">
         <v>829</v>
       </c>
-      <c r="B830" s="114">
+      <c r="B830" s="105">
         <v>330</v>
       </c>
       <c r="C830" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D830" s="77">
+      <c r="D830" s="74">
         <v>3</v>
       </c>
-      <c r="E830" s="77">
+      <c r="E830" s="74">
         <v>4</v>
       </c>
-      <c r="F830" s="77">
-        <v>1</v>
-      </c>
-      <c r="G830" s="77" t="s">
+      <c r="F830" s="74">
+        <v>1</v>
+      </c>
+      <c r="G830" s="74" t="s">
         <v>1475</v>
       </c>
       <c r="H830" s="8"/>
@@ -47258,22 +47244,22 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="115">
+      <c r="B831" s="106">
         <v>331</v>
       </c>
-      <c r="C831" s="115" t="s">
+      <c r="C831" s="106" t="s">
         <v>876</v>
       </c>
-      <c r="D831" s="115">
+      <c r="D831" s="106">
         <v>4</v>
       </c>
-      <c r="E831" s="115">
+      <c r="E831" s="106">
         <v>3</v>
       </c>
-      <c r="F831" s="115">
-        <v>1</v>
-      </c>
-      <c r="G831" s="116" t="s">
+      <c r="F831" s="106">
+        <v>1</v>
+      </c>
+      <c r="G831" s="107" t="s">
         <v>1778</v>
       </c>
       <c r="H831" s="8"/>
@@ -47283,22 +47269,22 @@
       <c r="A832" s="8">
         <v>831</v>
       </c>
-      <c r="B832" s="115">
+      <c r="B832" s="106">
         <v>331</v>
       </c>
-      <c r="C832" s="115" t="s">
+      <c r="C832" s="106" t="s">
         <v>876</v>
       </c>
-      <c r="D832" s="115">
+      <c r="D832" s="106">
         <v>10</v>
       </c>
-      <c r="E832" s="115">
+      <c r="E832" s="106">
         <v>4</v>
       </c>
-      <c r="F832" s="115">
-        <v>1</v>
-      </c>
-      <c r="G832" s="116" t="s">
+      <c r="F832" s="106">
+        <v>1</v>
+      </c>
+      <c r="G832" s="107" t="s">
         <v>1777</v>
       </c>
       <c r="H832" s="8"/>
@@ -47458,22 +47444,22 @@
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="98">
+      <c r="B839" s="89">
         <v>336</v>
       </c>
-      <c r="C839" s="98" t="s">
+      <c r="C839" s="89" t="s">
         <v>1826</v>
       </c>
-      <c r="D839" s="99" t="s">
+      <c r="D839" s="90" t="s">
         <v>1827</v>
       </c>
-      <c r="E839" s="98">
+      <c r="E839" s="89">
         <v>5</v>
       </c>
-      <c r="F839" s="98">
-        <v>1</v>
-      </c>
-      <c r="G839" s="99" t="s">
+      <c r="F839" s="89">
+        <v>1</v>
+      </c>
+      <c r="G839" s="90" t="s">
         <v>1822</v>
       </c>
       <c r="H839" s="8"/>
@@ -47508,22 +47494,22 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="106">
+      <c r="B841" s="97">
         <v>337</v>
       </c>
-      <c r="C841" s="107" t="s">
+      <c r="C841" s="98" t="s">
         <v>1043</v>
       </c>
-      <c r="D841" s="107" t="s">
+      <c r="D841" s="98" t="s">
         <v>1837</v>
       </c>
-      <c r="E841" s="106">
-        <v>2</v>
-      </c>
-      <c r="F841" s="106">
-        <v>1</v>
-      </c>
-      <c r="G841" s="107" t="s">
+      <c r="E841" s="97">
+        <v>2</v>
+      </c>
+      <c r="F841" s="97">
+        <v>1</v>
+      </c>
+      <c r="G841" s="98" t="s">
         <v>1838</v>
       </c>
       <c r="H841" s="8"/>
@@ -47533,22 +47519,22 @@
       <c r="A842" s="8">
         <v>841</v>
       </c>
-      <c r="B842" s="106">
+      <c r="B842" s="97">
         <v>337</v>
       </c>
-      <c r="C842" s="106" t="s">
+      <c r="C842" s="97" t="s">
         <v>891</v>
       </c>
-      <c r="D842" s="106">
+      <c r="D842" s="97">
         <v>1604968200</v>
       </c>
-      <c r="E842" s="106">
+      <c r="E842" s="97">
         <v>3</v>
       </c>
-      <c r="F842" s="106">
-        <v>1</v>
-      </c>
-      <c r="G842" s="107" t="s">
+      <c r="F842" s="97">
+        <v>1</v>
+      </c>
+      <c r="G842" s="98" t="s">
         <v>1839</v>
       </c>
       <c r="H842" s="8"/>
@@ -47558,22 +47544,22 @@
       <c r="A843" s="8">
         <v>842</v>
       </c>
-      <c r="B843" s="106">
+      <c r="B843" s="97">
         <v>337</v>
       </c>
-      <c r="C843" s="106" t="s">
+      <c r="C843" s="97" t="s">
         <v>863</v>
       </c>
-      <c r="D843" s="106" t="s">
+      <c r="D843" s="97" t="s">
         <v>864</v>
       </c>
-      <c r="E843" s="106">
-        <v>2</v>
-      </c>
-      <c r="F843" s="106">
-        <v>1</v>
-      </c>
-      <c r="G843" s="106" t="s">
+      <c r="E843" s="97">
+        <v>2</v>
+      </c>
+      <c r="F843" s="97">
+        <v>1</v>
+      </c>
+      <c r="G843" s="97" t="s">
         <v>1841</v>
       </c>
       <c r="H843" s="8"/>
@@ -47691,47 +47677,47 @@
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="110">
+      <c r="B848" s="101">
         <v>342</v>
       </c>
-      <c r="C848" s="111" t="s">
+      <c r="C848" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D848" s="111" t="s">
+      <c r="D848" s="102" t="s">
         <v>1908</v>
       </c>
-      <c r="E848" s="110">
-        <v>2</v>
-      </c>
-      <c r="F848" s="110">
-        <v>1</v>
-      </c>
-      <c r="G848" s="111" t="s">
+      <c r="E848" s="101">
+        <v>2</v>
+      </c>
+      <c r="F848" s="101">
+        <v>1</v>
+      </c>
+      <c r="G848" s="102" t="s">
         <v>1909</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
     </row>
-    <row r="849" spans="1:9" s="98" customFormat="1">
+    <row r="849" spans="1:9" s="89" customFormat="1">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="110">
+      <c r="B849" s="101">
         <v>342</v>
       </c>
-      <c r="C849" s="110" t="s">
+      <c r="C849" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D849" s="110">
-        <v>1</v>
-      </c>
-      <c r="E849" s="110">
+      <c r="D849" s="101">
+        <v>1</v>
+      </c>
+      <c r="E849" s="101">
         <v>3</v>
       </c>
-      <c r="F849" s="110">
-        <v>1</v>
-      </c>
-      <c r="G849" s="111" t="s">
+      <c r="F849" s="101">
+        <v>1</v>
+      </c>
+      <c r="G849" s="102" t="s">
         <v>1899</v>
       </c>
       <c r="H849" s="8"/>
@@ -47741,97 +47727,97 @@
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="110">
+      <c r="B850" s="101">
         <v>342</v>
       </c>
-      <c r="C850" s="111" t="s">
+      <c r="C850" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D850" s="111" t="s">
+      <c r="D850" s="102" t="s">
         <v>1905</v>
       </c>
-      <c r="E850" s="110">
-        <v>2</v>
-      </c>
-      <c r="F850" s="110">
-        <v>2</v>
-      </c>
-      <c r="G850" s="111" t="s">
+      <c r="E850" s="101">
+        <v>2</v>
+      </c>
+      <c r="F850" s="101">
+        <v>2</v>
+      </c>
+      <c r="G850" s="102" t="s">
         <v>1676</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="1:9" s="106" customFormat="1">
+    <row r="851" spans="1:9" s="97" customFormat="1">
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="110">
+      <c r="B851" s="101">
         <v>342</v>
       </c>
-      <c r="C851" s="110" t="s">
+      <c r="C851" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D851" s="110">
-        <v>1</v>
-      </c>
-      <c r="E851" s="110">
+      <c r="D851" s="101">
+        <v>1</v>
+      </c>
+      <c r="E851" s="101">
         <v>3</v>
       </c>
-      <c r="F851" s="110">
-        <v>2</v>
-      </c>
-      <c r="G851" s="111" t="s">
+      <c r="F851" s="101">
+        <v>2</v>
+      </c>
+      <c r="G851" s="102" t="s">
         <v>1899</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="1:9" s="106" customFormat="1">
+    <row r="852" spans="1:9" s="97" customFormat="1">
       <c r="A852" s="8">
         <v>851</v>
       </c>
-      <c r="B852" s="110">
+      <c r="B852" s="101">
         <v>342</v>
       </c>
-      <c r="C852" s="111" t="s">
+      <c r="C852" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D852" s="111" t="s">
+      <c r="D852" s="102" t="s">
         <v>1906</v>
       </c>
-      <c r="E852" s="110">
-        <v>2</v>
-      </c>
-      <c r="F852" s="110">
+      <c r="E852" s="101">
+        <v>2</v>
+      </c>
+      <c r="F852" s="101">
         <v>3</v>
       </c>
-      <c r="G852" s="111" t="s">
+      <c r="G852" s="102" t="s">
         <v>1898</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
     </row>
-    <row r="853" spans="1:9" s="106" customFormat="1">
+    <row r="853" spans="1:9" s="97" customFormat="1">
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="110">
+      <c r="B853" s="101">
         <v>342</v>
       </c>
-      <c r="C853" s="110" t="s">
+      <c r="C853" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D853" s="110">
-        <v>1</v>
-      </c>
-      <c r="E853" s="110">
+      <c r="D853" s="101">
+        <v>1</v>
+      </c>
+      <c r="E853" s="101">
         <v>3</v>
       </c>
-      <c r="F853" s="110">
+      <c r="F853" s="101">
         <v>3</v>
       </c>
-      <c r="G853" s="111" t="s">
+      <c r="G853" s="102" t="s">
         <v>1899</v>
       </c>
       <c r="H853" s="8"/>
@@ -47841,22 +47827,22 @@
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="110">
+      <c r="B854" s="101">
         <v>342</v>
       </c>
-      <c r="C854" s="110" t="s">
+      <c r="C854" s="101" t="s">
         <v>1043</v>
       </c>
-      <c r="D854" s="110" t="s">
+      <c r="D854" s="101" t="s">
         <v>1918</v>
       </c>
-      <c r="E854" s="110">
-        <v>2</v>
-      </c>
-      <c r="F854" s="110">
+      <c r="E854" s="101">
+        <v>2</v>
+      </c>
+      <c r="F854" s="101">
         <v>4</v>
       </c>
-      <c r="G854" s="111" t="s">
+      <c r="G854" s="102" t="s">
         <v>1899</v>
       </c>
       <c r="H854" s="8"/>
@@ -47866,22 +47852,22 @@
       <c r="A855" s="8">
         <v>854</v>
       </c>
-      <c r="B855" s="110">
+      <c r="B855" s="101">
         <v>342</v>
       </c>
-      <c r="C855" s="110" t="s">
+      <c r="C855" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D855" s="110">
-        <v>1</v>
-      </c>
-      <c r="E855" s="110">
+      <c r="D855" s="101">
+        <v>1</v>
+      </c>
+      <c r="E855" s="101">
         <v>3</v>
       </c>
-      <c r="F855" s="110">
+      <c r="F855" s="101">
         <v>4</v>
       </c>
-      <c r="G855" s="111" t="s">
+      <c r="G855" s="102" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -47931,7 +47917,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="858" spans="1:9" s="110" customFormat="1">
+    <row r="858" spans="1:9" s="101" customFormat="1">
       <c r="A858" s="8">
         <v>857</v>
       </c>
@@ -47956,7 +47942,7 @@
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" spans="1:9" s="110" customFormat="1">
+    <row r="859" spans="1:9" s="101" customFormat="1">
       <c r="A859" s="8">
         <v>858</v>
       </c>
@@ -47981,7 +47967,7 @@
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" spans="1:9" s="110" customFormat="1">
+    <row r="860" spans="1:9" s="101" customFormat="1">
       <c r="A860" s="8">
         <v>859</v>
       </c>
@@ -48006,7 +47992,7 @@
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" spans="1:9" s="110" customFormat="1">
+    <row r="861" spans="1:9" s="101" customFormat="1">
       <c r="A861" s="8">
         <v>860</v>
       </c>
@@ -48031,7 +48017,7 @@
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" spans="1:9" s="110" customFormat="1">
+    <row r="862" spans="1:9" s="101" customFormat="1">
       <c r="A862" s="8">
         <v>861</v>
       </c>
@@ -48056,7 +48042,7 @@
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" spans="1:9" s="110" customFormat="1">
+    <row r="863" spans="1:9" s="101" customFormat="1">
       <c r="A863" s="8">
         <v>862</v>
       </c>
@@ -48081,7 +48067,7 @@
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" spans="1:9" s="110" customFormat="1">
+    <row r="864" spans="1:9" s="101" customFormat="1">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -48106,7 +48092,7 @@
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" spans="1:9" s="110" customFormat="1">
+    <row r="865" spans="1:9" s="101" customFormat="1">
       <c r="A865" s="8">
         <v>864</v>
       </c>
@@ -49429,22 +49415,22 @@
       <c r="A920" s="8">
         <v>919</v>
       </c>
-      <c r="B920" s="103">
+      <c r="B920" s="94">
         <v>370</v>
       </c>
-      <c r="C920" s="104" t="s">
+      <c r="C920" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D920" s="104" t="s">
+      <c r="D920" s="95" t="s">
         <v>1973</v>
       </c>
-      <c r="E920" s="103">
+      <c r="E920" s="94">
         <v>5</v>
       </c>
-      <c r="F920" s="103">
-        <v>1</v>
-      </c>
-      <c r="G920" s="104" t="s">
+      <c r="F920" s="94">
+        <v>1</v>
+      </c>
+      <c r="G920" s="95" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -49452,22 +49438,22 @@
       <c r="A921" s="8">
         <v>920</v>
       </c>
-      <c r="B921" s="103">
+      <c r="B921" s="94">
         <v>371</v>
       </c>
-      <c r="C921" s="104" t="s">
+      <c r="C921" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D921" s="104" t="s">
+      <c r="D921" s="95" t="s">
         <v>1973</v>
       </c>
-      <c r="E921" s="103">
-        <v>2</v>
-      </c>
-      <c r="F921" s="103">
-        <v>1</v>
-      </c>
-      <c r="G921" s="104" t="s">
+      <c r="E921" s="94">
+        <v>2</v>
+      </c>
+      <c r="F921" s="94">
+        <v>1</v>
+      </c>
+      <c r="G921" s="95" t="s">
         <v>1730</v>
       </c>
     </row>
@@ -49475,22 +49461,22 @@
       <c r="A922" s="8">
         <v>921</v>
       </c>
-      <c r="B922" s="103">
+      <c r="B922" s="94">
         <v>372</v>
       </c>
-      <c r="C922" s="104" t="s">
+      <c r="C922" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D922" s="104" t="s">
+      <c r="D922" s="95" t="s">
         <v>1973</v>
       </c>
-      <c r="E922" s="103">
+      <c r="E922" s="94">
         <v>5</v>
       </c>
-      <c r="F922" s="103">
-        <v>1</v>
-      </c>
-      <c r="G922" s="104" t="s">
+      <c r="F922" s="94">
+        <v>1</v>
+      </c>
+      <c r="G922" s="95" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -49498,22 +49484,22 @@
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="103">
+      <c r="B923" s="94">
         <v>373</v>
       </c>
-      <c r="C923" s="104" t="s">
+      <c r="C923" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D923" s="104" t="s">
+      <c r="D923" s="95" t="s">
         <v>1973</v>
       </c>
-      <c r="E923" s="103">
-        <v>2</v>
-      </c>
-      <c r="F923" s="103">
-        <v>1</v>
-      </c>
-      <c r="G923" s="104" t="s">
+      <c r="E923" s="94">
+        <v>2</v>
+      </c>
+      <c r="F923" s="94">
+        <v>1</v>
+      </c>
+      <c r="G923" s="95" t="s">
         <v>1730</v>
       </c>
     </row>
@@ -49705,22 +49691,22 @@
       <c r="A932" s="8">
         <v>931</v>
       </c>
-      <c r="B932" s="103">
+      <c r="B932" s="94">
         <v>380</v>
       </c>
-      <c r="C932" s="103" t="s">
+      <c r="C932" s="94" t="s">
         <v>1043</v>
       </c>
-      <c r="D932" s="103" t="s">
+      <c r="D932" s="94" t="s">
         <v>1669</v>
       </c>
-      <c r="E932" s="103">
+      <c r="E932" s="94">
         <v>5</v>
       </c>
-      <c r="F932" s="103">
-        <v>1</v>
-      </c>
-      <c r="G932" s="103" t="s">
+      <c r="F932" s="94">
+        <v>1</v>
+      </c>
+      <c r="G932" s="94" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -49728,22 +49714,22 @@
       <c r="A933" s="8">
         <v>932</v>
       </c>
-      <c r="B933" s="103">
+      <c r="B933" s="94">
         <v>380</v>
       </c>
-      <c r="C933" s="103" t="s">
+      <c r="C933" s="94" t="s">
         <v>2050</v>
       </c>
-      <c r="D933" s="123" t="s">
+      <c r="D933" s="113" t="s">
         <v>2051</v>
       </c>
-      <c r="E933" s="103">
-        <v>2</v>
-      </c>
-      <c r="F933" s="103">
-        <v>1</v>
-      </c>
-      <c r="G933" s="103" t="s">
+      <c r="E933" s="94">
+        <v>2</v>
+      </c>
+      <c r="F933" s="94">
+        <v>1</v>
+      </c>
+      <c r="G933" s="94" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -49751,22 +49737,22 @@
       <c r="A934" s="8">
         <v>933</v>
       </c>
-      <c r="B934" s="103">
+      <c r="B934" s="94">
         <v>380</v>
       </c>
-      <c r="C934" s="103" t="s">
+      <c r="C934" s="94" t="s">
         <v>1043</v>
       </c>
-      <c r="D934" s="103" t="s">
+      <c r="D934" s="94" t="s">
         <v>1920</v>
       </c>
-      <c r="E934" s="103">
-        <v>2</v>
-      </c>
-      <c r="F934" s="103">
-        <v>2</v>
-      </c>
-      <c r="G934" s="104" t="s">
+      <c r="E934" s="94">
+        <v>2</v>
+      </c>
+      <c r="F934" s="94">
+        <v>2</v>
+      </c>
+      <c r="G934" s="95" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -49774,22 +49760,22 @@
       <c r="A935" s="8">
         <v>934</v>
       </c>
-      <c r="B935" s="103">
+      <c r="B935" s="94">
         <v>380</v>
       </c>
-      <c r="C935" s="103" t="s">
+      <c r="C935" s="94" t="s">
         <v>2054</v>
       </c>
-      <c r="D935" s="104" t="s">
+      <c r="D935" s="95" t="s">
         <v>2055</v>
       </c>
-      <c r="E935" s="103">
-        <v>2</v>
-      </c>
-      <c r="F935" s="103">
-        <v>2</v>
-      </c>
-      <c r="G935" s="103" t="s">
+      <c r="E935" s="94">
+        <v>2</v>
+      </c>
+      <c r="F935" s="94">
+        <v>2</v>
+      </c>
+      <c r="G935" s="94" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -49820,22 +49806,22 @@
       <c r="A937" s="8">
         <v>936</v>
       </c>
-      <c r="B937" s="127">
+      <c r="B937" s="117">
         <v>382</v>
       </c>
-      <c r="C937" s="128" t="s">
+      <c r="C937" s="118" t="s">
         <v>1063</v>
       </c>
-      <c r="D937" s="128" t="s">
+      <c r="D937" s="118" t="s">
         <v>1223</v>
       </c>
-      <c r="E937" s="127">
-        <v>2</v>
-      </c>
-      <c r="F937" s="127">
-        <v>1</v>
-      </c>
-      <c r="G937" s="128" t="s">
+      <c r="E937" s="117">
+        <v>2</v>
+      </c>
+      <c r="F937" s="117">
+        <v>1</v>
+      </c>
+      <c r="G937" s="118" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -49843,22 +49829,22 @@
       <c r="A938" s="8">
         <v>937</v>
       </c>
-      <c r="B938" s="127">
+      <c r="B938" s="117">
         <v>382</v>
       </c>
-      <c r="C938" s="128" t="s">
+      <c r="C938" s="118" t="s">
         <v>863</v>
       </c>
-      <c r="D938" s="128" t="s">
+      <c r="D938" s="118" t="s">
         <v>868</v>
       </c>
-      <c r="E938" s="127">
-        <v>2</v>
-      </c>
-      <c r="F938" s="127">
-        <v>2</v>
-      </c>
-      <c r="G938" s="128" t="s">
+      <c r="E938" s="117">
+        <v>2</v>
+      </c>
+      <c r="F938" s="117">
+        <v>2</v>
+      </c>
+      <c r="G938" s="118" t="s">
         <v>2068</v>
       </c>
     </row>
@@ -49866,22 +49852,22 @@
       <c r="A939" s="8">
         <v>938</v>
       </c>
-      <c r="B939" s="127">
+      <c r="B939" s="117">
         <v>382</v>
       </c>
-      <c r="C939" s="128" t="s">
+      <c r="C939" s="118" t="s">
         <v>863</v>
       </c>
-      <c r="D939" s="128" t="s">
+      <c r="D939" s="118" t="s">
         <v>872</v>
       </c>
-      <c r="E939" s="127">
-        <v>2</v>
-      </c>
-      <c r="F939" s="127">
+      <c r="E939" s="117">
+        <v>2</v>
+      </c>
+      <c r="F939" s="117">
         <v>3</v>
       </c>
-      <c r="G939" s="128" t="s">
+      <c r="G939" s="118" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -49889,19 +49875,19 @@
       <c r="A940" s="8">
         <v>939</v>
       </c>
-      <c r="B940" s="129">
+      <c r="B940" s="119">
         <v>383</v>
       </c>
       <c r="C940" s="45" t="s">
         <v>1128</v>
       </c>
-      <c r="D940" s="129">
-        <v>1</v>
-      </c>
-      <c r="E940" s="129">
+      <c r="D940" s="119">
+        <v>1</v>
+      </c>
+      <c r="E940" s="119">
         <v>3</v>
       </c>
-      <c r="F940" s="129">
+      <c r="F940" s="119">
         <v>1</v>
       </c>
       <c r="G940" s="45" t="s">
@@ -49912,19 +49898,19 @@
       <c r="A941" s="8">
         <v>940</v>
       </c>
-      <c r="B941" s="129">
+      <c r="B941" s="119">
         <v>383</v>
       </c>
       <c r="C941" s="45" t="s">
         <v>1128</v>
       </c>
-      <c r="D941" s="129">
+      <c r="D941" s="119">
         <v>7</v>
       </c>
-      <c r="E941" s="129">
+      <c r="E941" s="119">
         <v>4</v>
       </c>
-      <c r="F941" s="129">
+      <c r="F941" s="119">
         <v>1</v>
       </c>
       <c r="G941" s="45" t="s">
@@ -49935,19 +49921,19 @@
       <c r="A942" s="8">
         <v>941</v>
       </c>
-      <c r="B942" s="129">
+      <c r="B942" s="119">
         <v>383</v>
       </c>
-      <c r="C942" s="129" t="s">
+      <c r="C942" s="119" t="s">
         <v>863</v>
       </c>
-      <c r="D942" s="129" t="s">
+      <c r="D942" s="119" t="s">
         <v>864</v>
       </c>
-      <c r="E942" s="129">
+      <c r="E942" s="119">
         <v>5</v>
       </c>
-      <c r="F942" s="129">
+      <c r="F942" s="119">
         <v>1</v>
       </c>
       <c r="G942" s="45" t="s">
@@ -49958,22 +49944,22 @@
       <c r="A943" s="8">
         <v>942</v>
       </c>
-      <c r="B943" s="127">
+      <c r="B943" s="117">
         <v>384</v>
       </c>
-      <c r="C943" s="128" t="s">
+      <c r="C943" s="118" t="s">
         <v>1128</v>
       </c>
-      <c r="D943" s="127">
-        <v>1</v>
-      </c>
-      <c r="E943" s="127">
+      <c r="D943" s="117">
+        <v>1</v>
+      </c>
+      <c r="E943" s="117">
         <v>3</v>
       </c>
-      <c r="F943" s="127">
-        <v>1</v>
-      </c>
-      <c r="G943" s="128" t="s">
+      <c r="F943" s="117">
+        <v>1</v>
+      </c>
+      <c r="G943" s="118" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -49981,22 +49967,22 @@
       <c r="A944" s="8">
         <v>943</v>
       </c>
-      <c r="B944" s="127">
+      <c r="B944" s="117">
         <v>384</v>
       </c>
-      <c r="C944" s="128" t="s">
+      <c r="C944" s="118" t="s">
         <v>1128</v>
       </c>
-      <c r="D944" s="127">
+      <c r="D944" s="117">
         <v>7</v>
       </c>
-      <c r="E944" s="127">
+      <c r="E944" s="117">
         <v>4</v>
       </c>
-      <c r="F944" s="127">
-        <v>1</v>
-      </c>
-      <c r="G944" s="128" t="s">
+      <c r="F944" s="117">
+        <v>1</v>
+      </c>
+      <c r="G944" s="118" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -50004,22 +49990,22 @@
       <c r="A945" s="8">
         <v>944</v>
       </c>
-      <c r="B945" s="127">
+      <c r="B945" s="117">
         <v>384</v>
       </c>
-      <c r="C945" s="127" t="s">
+      <c r="C945" s="117" t="s">
         <v>863</v>
       </c>
-      <c r="D945" s="127" t="s">
+      <c r="D945" s="117" t="s">
         <v>864</v>
       </c>
-      <c r="E945" s="127">
+      <c r="E945" s="117">
         <v>5</v>
       </c>
-      <c r="F945" s="127">
-        <v>1</v>
-      </c>
-      <c r="G945" s="128" t="s">
+      <c r="F945" s="117">
+        <v>1</v>
+      </c>
+      <c r="G945" s="118" t="s">
         <v>2072</v>
       </c>
     </row>
@@ -50212,7 +50198,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93">
+      <c r="A6" s="84">
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -50235,7 +50221,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93">
+      <c r="A7" s="84">
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
@@ -50258,7 +50244,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93">
+      <c r="A8" s="84">
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -50281,7 +50267,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93">
+      <c r="A9" s="84">
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
@@ -50304,7 +50290,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93">
+      <c r="A10" s="84">
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
@@ -50327,7 +50313,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93">
+      <c r="A11" s="84">
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">

--- a/config_1.19/permission_server_config.xlsx
+++ b/config_1.19/permission_server_config.xlsx
@@ -7969,10 +7969,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>星星鱼刷新（非CPS渠道）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>不是CPS渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9657,6 +9653,10 @@
   </si>
   <si>
     <t>非CPS渠道权限(小游戏福利常用)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼刷新（非CPS渠道）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9933,7 +9933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10268,6 +10268,7 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11754,7 +11755,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11790,7 +11791,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11929,7 +11930,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12911,7 +12912,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="34" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -13115,7 +13116,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1">
       <c r="A200" s="64" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -14453,7 +14454,7 @@
         <v>1374</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14516,10 +14517,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B355" s="27" t="s">
         <v>1828</v>
-      </c>
-      <c r="B355" s="27" t="s">
-        <v>1829</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14527,10 +14528,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14549,10 +14550,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B360" s="34" t="s">
         <v>1790</v>
-      </c>
-      <c r="B360" s="34" t="s">
-        <v>1791</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14563,7 +14564,7 @@
         <v>1456</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14585,7 +14586,7 @@
         <v>1452</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14596,7 +14597,7 @@
         <v>1490</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14604,7 +14605,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1514</v>
@@ -14681,10 +14682,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -14692,10 +14693,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -14703,10 +14704,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -14714,10 +14715,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -14725,10 +14726,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="34" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -14736,10 +14737,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="34" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -14747,10 +14748,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="34" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -14758,10 +14759,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="34" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -14769,10 +14770,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="34" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -14780,10 +14781,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="34" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -14791,10 +14792,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="34" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -14802,10 +14803,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -14813,10 +14814,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -14824,10 +14825,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B399" s="27" t="s">
         <v>1798</v>
-      </c>
-      <c r="B399" s="27" t="s">
-        <v>1799</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -14835,10 +14836,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B400" s="27" t="s">
         <v>1800</v>
-      </c>
-      <c r="B400" s="27" t="s">
-        <v>1801</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -14846,10 +14847,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B401" s="27" t="s">
         <v>1802</v>
-      </c>
-      <c r="B401" s="27" t="s">
-        <v>1803</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -14857,10 +14858,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1804</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1805</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14868,10 +14869,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1806</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1807</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14879,10 +14880,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1813</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1814</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -14890,10 +14891,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1853</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1854</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -14901,10 +14902,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>1858</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1859</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -14912,37 +14913,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="34" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B411" s="10" t="s">
         <v>1860</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>1861</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B412" s="10" t="s">
         <v>1862</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>1863</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1864</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1865</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1866</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1867</v>
       </c>
       <c r="C414" s="57">
         <v>22</v>
@@ -14950,10 +14951,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1868</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1869</v>
       </c>
       <c r="C415" s="57">
         <v>22</v>
@@ -14961,10 +14962,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1870</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1871</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14972,10 +14973,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1872</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1873</v>
       </c>
       <c r="C417" s="57">
         <v>23</v>
@@ -14983,10 +14984,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1874</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1875</v>
       </c>
       <c r="C418" s="57">
         <v>23</v>
@@ -14994,10 +14995,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1876</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1877</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15005,10 +15006,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1878</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1879</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15016,10 +15017,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1880</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1881</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15027,10 +15028,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1882</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1883</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15038,10 +15039,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1884</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1885</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15049,10 +15050,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B425" s="27" t="s">
         <v>1889</v>
-      </c>
-      <c r="B425" s="27" t="s">
-        <v>1890</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15060,10 +15061,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15071,10 +15072,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B428" s="27" t="s">
         <v>1944</v>
-      </c>
-      <c r="B428" s="27" t="s">
-        <v>1945</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15082,10 +15083,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15093,10 +15094,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15104,10 +15105,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B433" s="27" t="s">
         <v>1933</v>
-      </c>
-      <c r="B433" s="27" t="s">
-        <v>1934</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15115,10 +15116,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1949</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1950</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15126,10 +15127,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B436" s="27" t="s">
         <v>1951</v>
-      </c>
-      <c r="B436" s="27" t="s">
-        <v>1952</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15137,10 +15138,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1960</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1961</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15148,10 +15149,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15159,10 +15160,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1970</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1971</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15174,10 +15175,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1999</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>2000</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15185,10 +15186,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="76" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2006</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2007</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15196,10 +15197,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="76" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B447" s="27" t="s">
         <v>2008</v>
-      </c>
-      <c r="B447" s="27" t="s">
-        <v>2009</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15207,10 +15208,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15218,10 +15219,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2027</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2028</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15229,10 +15230,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2033</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2034</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15240,10 +15241,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15251,10 +15252,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15262,10 +15263,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15273,10 +15274,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2043</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2044</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15284,10 +15285,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2058</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2059</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15295,10 +15296,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2073</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2074</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15306,10 +15307,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2075</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2076</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15328,10 +15329,10 @@
   <dimension ref="A1:O356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A356" sqref="A356"/>
+      <selection pane="bottomRight" activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15513,7 +15514,7 @@
         <v>1496</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15669,7 +15670,7 @@
         <v>467</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1163</v>
@@ -21381,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>772</v>
@@ -21928,7 +21929,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24987,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1614</v>
@@ -25180,7 +25181,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="75" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="77" customFormat="1">
@@ -25214,7 +25215,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="75" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="77" customFormat="1">
@@ -25248,7 +25249,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="75" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="77" customFormat="1">
@@ -25259,10 +25260,10 @@
         <v>0</v>
       </c>
       <c r="C292" s="120" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D292" s="120" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E292" s="75"/>
       <c r="F292" s="75"/>
@@ -25282,7 +25283,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="100" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25517,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1666</v>
@@ -25645,7 +25646,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1673</v>
@@ -26095,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D318" s="30" t="s">
         <v>1717</v>
@@ -26159,7 +26160,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D320" s="16" t="s">
         <v>1721</v>
@@ -26183,35 +26184,37 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
-      <c r="A321" s="26">
+    <row r="321" spans="1:12" s="122" customFormat="1">
+      <c r="A321" s="121">
         <v>320</v>
       </c>
-      <c r="B321" s="26">
-        <v>0</v>
-      </c>
-      <c r="C321" s="30" t="s">
+      <c r="B321" s="121">
+        <v>1</v>
+      </c>
+      <c r="C321" s="120" t="s">
         <v>1727</v>
       </c>
-      <c r="D321" s="26" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G321" s="26">
+      <c r="D321" s="120" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E321" s="121"/>
+      <c r="F321" s="121"/>
+      <c r="G321" s="121">
         <v>325</v>
       </c>
-      <c r="H321" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I321" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" s="16" t="s">
+      <c r="H321" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="120" t="s">
         <v>1127</v>
       </c>
-      <c r="K321" s="26">
+      <c r="K321" s="121">
         <v>1601335800</v>
       </c>
-      <c r="L321" s="30" t="s">
+      <c r="L321" s="120" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -26223,10 +26226,10 @@
         <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26244,7 +26247,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26255,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26276,7 +26279,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26287,10 +26290,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26302,7 +26305,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26319,10 +26322,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26351,10 +26354,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="120" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D326" s="120" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26372,7 +26375,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26383,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="120" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D327" s="120" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26404,7 +26407,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26415,10 +26418,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26447,10 +26450,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1816</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1817</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26479,10 +26482,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26494,7 +26497,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26511,10 +26514,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1819</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1820</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26543,10 +26546,10 @@
         <v>0</v>
       </c>
       <c r="C332" s="92" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D332" s="92" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E332" s="91"/>
       <c r="F332" s="91"/>
@@ -26566,7 +26569,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="92" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26577,10 +26580,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26592,7 +26595,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26609,10 +26612,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26643,10 +26646,10 @@
         <v>0</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1891</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1892</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26666,7 +26669,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26677,10 +26680,10 @@
         <v>0</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1893</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1894</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26694,13 +26697,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26711,10 +26714,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26743,10 +26746,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26777,10 +26780,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="76" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -26809,10 +26812,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="76" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -26841,10 +26844,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -26873,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="76" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -26905,10 +26908,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="76" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -26937,10 +26940,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="76" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -26969,10 +26972,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="76" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27001,10 +27004,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D346" s="83" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27033,10 +27036,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D347" s="83" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27065,10 +27068,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="120" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D348" s="120" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27099,10 +27102,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="108" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D349" s="108" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E349" s="108"/>
       <c r="F349" s="108"/>
@@ -27116,13 +27119,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K349" s="108">
         <v>1610409600</v>
       </c>
       <c r="L349" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="110" customFormat="1">
@@ -27133,10 +27136,10 @@
         <v>1</v>
       </c>
       <c r="C350" s="108" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D350" s="108" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E350" s="108"/>
       <c r="F350" s="108"/>
@@ -27150,13 +27153,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K350" s="108">
         <v>1610409600</v>
       </c>
       <c r="L350" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="110" customFormat="1">
@@ -27167,10 +27170,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="109" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D351" s="109" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E351" s="108"/>
       <c r="F351" s="108"/>
@@ -27184,13 +27187,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K351" s="108">
         <v>1610380800</v>
       </c>
       <c r="L351" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="110" customFormat="1">
@@ -27201,10 +27204,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="109" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D352" s="109" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E352" s="108"/>
       <c r="F352" s="108"/>
@@ -27218,13 +27221,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="109" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K352" s="108">
         <v>1610380800</v>
       </c>
       <c r="L352" s="109" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="110" customFormat="1">
@@ -27235,10 +27238,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="111" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D353" s="108" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E353" s="108"/>
       <c r="F353" s="108"/>
@@ -27269,10 +27272,10 @@
         <v>1</v>
       </c>
       <c r="C354" s="114" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D354" s="114" t="s">
         <v>2060</v>
-      </c>
-      <c r="D354" s="114" t="s">
-        <v>2061</v>
       </c>
       <c r="E354" s="115"/>
       <c r="F354" s="115"/>
@@ -27292,7 +27295,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="114" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -27303,10 +27306,10 @@
         <v>1</v>
       </c>
       <c r="C355" s="114" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D355" s="114" t="s">
         <v>2063</v>
-      </c>
-      <c r="D355" s="114" t="s">
-        <v>2064</v>
       </c>
       <c r="E355" s="115"/>
       <c r="F355" s="115"/>
@@ -27326,7 +27329,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="114" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -27337,10 +27340,10 @@
         <v>1</v>
       </c>
       <c r="C356" s="114" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D356" s="114" t="s">
         <v>2066</v>
-      </c>
-      <c r="D356" s="114" t="s">
-        <v>2067</v>
       </c>
       <c r="E356" s="115"/>
       <c r="F356" s="115"/>
@@ -27360,7 +27363,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="114" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
   </sheetData>
@@ -29577,7 +29580,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30800,7 +30803,7 @@
         <v>1043</v>
       </c>
       <c r="D147" s="104" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E147" s="103">
         <v>2</v>
@@ -30875,7 +30878,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="104" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E150" s="103">
         <v>2</v>
@@ -30884,7 +30887,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="104" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -31544,7 +31547,7 @@
         <v>1043</v>
       </c>
       <c r="D179" s="85" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -31567,7 +31570,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="85" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31576,7 +31579,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -31974,7 +31977,7 @@
         <v>1043</v>
       </c>
       <c r="D197" s="96" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E197" s="94">
         <v>2</v>
@@ -31999,7 +32002,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="96" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E198" s="94">
         <v>2</v>
@@ -32008,7 +32011,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="95" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -41404,7 +41407,7 @@
         <v>1153</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -41454,7 +41457,7 @@
         <v>1153</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -41479,7 +41482,7 @@
         <v>1153</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -41504,7 +41507,7 @@
         <v>1153</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -41554,7 +41557,7 @@
         <v>1153</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -41604,7 +41607,7 @@
         <v>1153</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -41629,7 +41632,7 @@
         <v>1153</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -41654,7 +41657,7 @@
         <v>1153</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41704,7 +41707,7 @@
         <v>1153</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -41754,7 +41757,7 @@
         <v>1153</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -41779,7 +41782,7 @@
         <v>1153</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -41804,7 +41807,7 @@
         <v>1153</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41854,7 +41857,7 @@
         <v>1153</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -41904,7 +41907,7 @@
         <v>1153</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -41929,7 +41932,7 @@
         <v>1153</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -41954,7 +41957,7 @@
         <v>1153</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -42004,7 +42007,7 @@
         <v>1153</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -42054,7 +42057,7 @@
         <v>1153</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -42079,7 +42082,7 @@
         <v>1153</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -42104,7 +42107,7 @@
         <v>1153</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -42154,7 +42157,7 @@
         <v>1153</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -42204,7 +42207,7 @@
         <v>1153</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -42229,7 +42232,7 @@
         <v>1153</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -42254,7 +42257,7 @@
         <v>1153</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -42820,7 +42823,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="53" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -43311,7 +43314,7 @@
         <v>1153</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44860,7 +44863,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -45060,7 +45063,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46601,7 +46604,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -46610,7 +46613,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -46676,7 +46679,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46685,7 +46688,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -46901,7 +46904,7 @@
         <v>863</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -46935,7 +46938,7 @@
         <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -46985,7 +46988,7 @@
         <v>3</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
@@ -47026,7 +47029,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -47035,7 +47038,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
@@ -47051,7 +47054,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -47060,7 +47063,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -47076,16 +47079,16 @@
         <v>1043</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E824" s="8">
+        <v>2</v>
+      </c>
+      <c r="F824" s="8">
+        <v>2</v>
+      </c>
+      <c r="G824" s="10" t="s">
         <v>1795</v>
-      </c>
-      <c r="E824" s="8">
-        <v>2</v>
-      </c>
-      <c r="F824" s="8">
-        <v>2</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1796</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -47101,7 +47104,7 @@
         <v>1043</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -47123,10 +47126,10 @@
         <v>328</v>
       </c>
       <c r="C826" s="53" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -47135,7 +47138,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -47151,7 +47154,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -47160,7 +47163,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -47176,7 +47179,7 @@
         <v>895</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -47185,7 +47188,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -47201,7 +47204,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -47210,7 +47213,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -47260,7 +47263,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="107" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -47285,7 +47288,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="107" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -47310,7 +47313,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -47326,7 +47329,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -47335,7 +47338,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -47376,7 +47379,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -47385,7 +47388,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -47426,7 +47429,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -47435,7 +47438,7 @@
         <v>1</v>
       </c>
       <c r="G838" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -47448,10 +47451,10 @@
         <v>336</v>
       </c>
       <c r="C839" s="89" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D839" s="90" t="s">
         <v>1826</v>
-      </c>
-      <c r="D839" s="90" t="s">
-        <v>1827</v>
       </c>
       <c r="E839" s="89">
         <v>5</v>
@@ -47460,7 +47463,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="90" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -47476,7 +47479,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -47485,7 +47488,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -47501,16 +47504,16 @@
         <v>1043</v>
       </c>
       <c r="D841" s="98" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E841" s="97">
+        <v>2</v>
+      </c>
+      <c r="F841" s="97">
+        <v>1</v>
+      </c>
+      <c r="G841" s="98" t="s">
         <v>1837</v>
-      </c>
-      <c r="E841" s="97">
-        <v>2</v>
-      </c>
-      <c r="F841" s="97">
-        <v>1</v>
-      </c>
-      <c r="G841" s="98" t="s">
-        <v>1838</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -47535,7 +47538,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="98" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -47560,7 +47563,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="97" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -47576,7 +47579,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -47585,7 +47588,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -47598,19 +47601,19 @@
         <v>339</v>
       </c>
       <c r="C845" s="10" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
         <v>1856</v>
-      </c>
-      <c r="D845" s="10" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1857</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -47630,7 +47633,7 @@
         <v>1157</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -47639,7 +47642,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -47655,7 +47658,7 @@
         <v>1157</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47664,7 +47667,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -47684,16 +47687,16 @@
         <v>1043</v>
       </c>
       <c r="D848" s="102" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E848" s="101">
+        <v>2</v>
+      </c>
+      <c r="F848" s="101">
+        <v>1</v>
+      </c>
+      <c r="G848" s="102" t="s">
         <v>1908</v>
-      </c>
-      <c r="E848" s="101">
-        <v>2</v>
-      </c>
-      <c r="F848" s="101">
-        <v>1</v>
-      </c>
-      <c r="G848" s="102" t="s">
-        <v>1909</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -47718,7 +47721,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="102" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47734,7 +47737,7 @@
         <v>1043</v>
       </c>
       <c r="D850" s="102" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E850" s="101">
         <v>2</v>
@@ -47768,7 +47771,7 @@
         <v>2</v>
       </c>
       <c r="G851" s="102" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47784,7 +47787,7 @@
         <v>1043</v>
       </c>
       <c r="D852" s="102" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E852" s="101">
         <v>2</v>
@@ -47793,7 +47796,7 @@
         <v>3</v>
       </c>
       <c r="G852" s="102" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47818,7 +47821,7 @@
         <v>3</v>
       </c>
       <c r="G853" s="102" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47834,7 +47837,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="101" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E854" s="101">
         <v>2</v>
@@ -47843,7 +47846,7 @@
         <v>4</v>
       </c>
       <c r="G854" s="102" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47868,7 +47871,7 @@
         <v>4</v>
       </c>
       <c r="G855" s="102" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47879,7 +47882,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="53" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -47891,7 +47894,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47902,10 +47905,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -47914,7 +47917,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="101" customFormat="1">
@@ -47925,7 +47928,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="53" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D858" s="9">
         <v>9</v>
@@ -47937,7 +47940,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47953,7 +47956,7 @@
         <v>1157</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47962,7 +47965,7 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47978,7 +47981,7 @@
         <v>1157</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E860" s="14">
         <v>2</v>
@@ -47987,7 +47990,7 @@
         <v>3</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -48003,7 +48006,7 @@
         <v>1157</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -48012,7 +48015,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -48028,7 +48031,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -48078,7 +48081,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -48128,7 +48131,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -48178,7 +48181,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -48228,7 +48231,7 @@
         <v>1153</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -48237,7 +48240,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -48253,7 +48256,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -48262,7 +48265,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -48278,7 +48281,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -48287,7 +48290,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -48301,7 +48304,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -48310,7 +48313,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -48324,7 +48327,7 @@
         <v>1157</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -48333,7 +48336,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -48347,7 +48350,7 @@
         <v>1153</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -48356,7 +48359,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -48379,7 +48382,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -48393,7 +48396,7 @@
         <v>1157</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -48416,7 +48419,7 @@
         <v>1153</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -48425,7 +48428,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -48439,7 +48442,7 @@
         <v>1153</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -48448,7 +48451,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -48459,7 +48462,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1611</v>
@@ -48471,7 +48474,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -48487,7 +48490,7 @@
         <v>1153</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -48496,7 +48499,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -48509,19 +48512,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D882" s="15" t="s">
         <v>1962</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1963</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1964</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -48537,7 +48540,7 @@
         <v>1153</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -48546,7 +48549,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -48562,7 +48565,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -48596,7 +48599,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48612,7 +48615,7 @@
         <v>1153</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E886" s="14">
         <v>2</v>
@@ -48646,7 +48649,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48662,7 +48665,7 @@
         <v>1153</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -48687,7 +48690,7 @@
         <v>1153</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48696,7 +48699,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48721,7 +48724,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48737,7 +48740,7 @@
         <v>1153</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48746,7 +48749,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48771,7 +48774,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48796,7 +48799,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48810,7 +48813,7 @@
         <v>1153</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48819,7 +48822,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48844,7 +48847,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48869,7 +48872,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48885,7 +48888,7 @@
         <v>1153</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48894,7 +48897,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48919,7 +48922,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48935,16 +48938,16 @@
         <v>1153</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1975</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48969,7 +48972,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48985,16 +48988,16 @@
         <v>1153</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -49017,7 +49020,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -49040,7 +49043,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -49054,16 +49057,16 @@
         <v>1153</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -49086,7 +49089,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -49109,7 +49112,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -49123,16 +49126,16 @@
         <v>1153</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -49155,7 +49158,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -49169,7 +49172,7 @@
         <v>1153</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -49178,7 +49181,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -49201,7 +49204,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -49215,7 +49218,7 @@
         <v>1153</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -49224,7 +49227,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -49247,7 +49250,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -49270,7 +49273,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -49293,7 +49296,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -49316,7 +49319,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -49330,7 +49333,7 @@
         <v>1153</v>
       </c>
       <c r="D916" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E916" s="14">
         <v>2</v>
@@ -49339,7 +49342,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -49350,19 +49353,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D917" s="15" t="s">
         <v>2002</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2003</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -49376,7 +49379,7 @@
         <v>1153</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -49385,7 +49388,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -49399,7 +49402,7 @@
         <v>1153</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E919" s="14">
         <v>5</v>
@@ -49408,7 +49411,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -49422,7 +49425,7 @@
         <v>1153</v>
       </c>
       <c r="D920" s="95" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E920" s="94">
         <v>5</v>
@@ -49431,7 +49434,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="95" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -49445,7 +49448,7 @@
         <v>1153</v>
       </c>
       <c r="D921" s="95" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E921" s="94">
         <v>2</v>
@@ -49454,7 +49457,7 @@
         <v>1</v>
       </c>
       <c r="G921" s="95" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="922" spans="1:7">
@@ -49468,7 +49471,7 @@
         <v>1153</v>
       </c>
       <c r="D922" s="95" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E922" s="94">
         <v>5</v>
@@ -49477,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="G922" s="95" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="923" spans="1:7">
@@ -49491,7 +49494,7 @@
         <v>1153</v>
       </c>
       <c r="D923" s="95" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E923" s="94">
         <v>2</v>
@@ -49500,7 +49503,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="95" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -49511,10 +49514,10 @@
         <v>374</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D924" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E924" s="14">
         <v>5</v>
@@ -49523,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -49534,7 +49537,7 @@
         <v>375</v>
       </c>
       <c r="C925" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D925" s="15" t="s">
         <v>1611</v>
@@ -49546,7 +49549,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -49557,10 +49560,10 @@
         <v>375</v>
       </c>
       <c r="C926" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D926" s="15" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E926" s="14">
         <v>2</v>
@@ -49569,7 +49572,7 @@
         <v>2</v>
       </c>
       <c r="G926" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -49580,10 +49583,10 @@
         <v>376</v>
       </c>
       <c r="C927" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D927" s="15" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E927" s="14">
         <v>2</v>
@@ -49592,7 +49595,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -49603,10 +49606,10 @@
         <v>377</v>
       </c>
       <c r="C928" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D928" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E928" s="14">
         <v>2</v>
@@ -49615,7 +49618,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -49626,10 +49629,10 @@
         <v>378</v>
       </c>
       <c r="C929" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D929" s="15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E929" s="14">
         <v>2</v>
@@ -49638,7 +49641,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="15" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="930" spans="1:7" s="8" customFormat="1">
@@ -49652,7 +49655,7 @@
         <v>1154</v>
       </c>
       <c r="D930" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E930" s="14">
         <v>2</v>
@@ -49661,7 +49664,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="931" spans="1:7" s="8" customFormat="1">
@@ -49684,7 +49687,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -49707,7 +49710,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="94" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="16.5">
@@ -49718,19 +49721,19 @@
         <v>380</v>
       </c>
       <c r="C933" s="94" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D933" s="113" t="s">
         <v>2050</v>
       </c>
-      <c r="D933" s="113" t="s">
+      <c r="E933" s="94">
+        <v>2</v>
+      </c>
+      <c r="F933" s="94">
+        <v>1</v>
+      </c>
+      <c r="G933" s="94" t="s">
         <v>2051</v>
-      </c>
-      <c r="E933" s="94">
-        <v>2</v>
-      </c>
-      <c r="F933" s="94">
-        <v>1</v>
-      </c>
-      <c r="G933" s="94" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -49744,7 +49747,7 @@
         <v>1043</v>
       </c>
       <c r="D934" s="94" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E934" s="94">
         <v>2</v>
@@ -49753,7 +49756,7 @@
         <v>2</v>
       </c>
       <c r="G934" s="95" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -49764,19 +49767,19 @@
         <v>380</v>
       </c>
       <c r="C935" s="94" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D935" s="95" t="s">
         <v>2054</v>
       </c>
-      <c r="D935" s="95" t="s">
+      <c r="E935" s="94">
+        <v>2</v>
+      </c>
+      <c r="F935" s="94">
+        <v>2</v>
+      </c>
+      <c r="G935" s="94" t="s">
         <v>2055</v>
-      </c>
-      <c r="E935" s="94">
-        <v>2</v>
-      </c>
-      <c r="F935" s="94">
-        <v>2</v>
-      </c>
-      <c r="G935" s="94" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="936" spans="1:7" s="8" customFormat="1">
@@ -49799,7 +49802,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -49845,7 +49848,7 @@
         <v>2</v>
       </c>
       <c r="G938" s="118" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -49868,7 +49871,7 @@
         <v>3</v>
       </c>
       <c r="G939" s="118" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -49891,7 +49894,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="45" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -49914,7 +49917,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="45" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -49937,7 +49940,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="45" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -49960,7 +49963,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="118" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -49983,7 +49986,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="118" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -50006,7 +50009,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="118" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="946" spans="1:7" s="8" customFormat="1">
@@ -50029,7 +50032,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="15" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="947" spans="1:7" s="8" customFormat="1">
@@ -50040,7 +50043,7 @@
         <v>386</v>
       </c>
       <c r="C947" s="15" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D947" s="15">
         <v>1</v>
@@ -50052,7 +50055,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="15" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
   </sheetData>
@@ -50185,7 +50188,7 @@
         <v>895</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -50202,13 +50205,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -50228,7 +50231,7 @@
         <v>1611</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1606</v>
@@ -50254,7 +50257,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -50271,13 +50274,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -50286,7 +50289,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -50294,13 +50297,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -50309,7 +50312,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -50317,13 +50320,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -50332,7 +50335,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -50425,7 +50428,7 @@
         <v>863</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="8" spans="1:11">
